--- a/ExcelParser/test.xlsx
+++ b/ExcelParser/test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajaarora\workspace\ExcelParser\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="216" windowWidth="10500" windowHeight="4596"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="AfW" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfW!$D$1:$J$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2313,6 +2318,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2360,7 +2368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2395,7 +2403,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2607,28 +2615,28 @@
   <dimension ref="A1:Q1046"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L347" sqref="L347"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.44140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="12" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="46.44140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.109375" style="50" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="46.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.140625" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>464</v>
       </c>
@@ -2675,7 +2683,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="10"/>
       <c r="C2" s="22"/>
@@ -2691,7 +2699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -2773,7 +2781,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="15" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -2804,7 +2812,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2833,7 +2841,7 @@
       <c r="P7" s="24"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" s="15" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2864,7 +2872,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -2883,7 +2891,7 @@
       <c r="P9" s="24"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>204</v>
       </c>
@@ -2916,7 +2924,7 @@
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
     </row>
-    <row r="11" spans="1:17" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -2943,7 +2951,7 @@
       <c r="P11" s="24"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -2970,7 +2978,7 @@
       <c r="P12" s="24"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -2997,7 +3005,7 @@
       <c r="P13" s="24"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -3024,7 +3032,7 @@
       <c r="P14" s="24"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -3051,7 +3059,7 @@
       <c r="P15" s="24"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>203</v>
       </c>
@@ -3082,7 +3090,7 @@
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
     </row>
-    <row r="17" spans="1:17" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -3109,7 +3117,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -3136,7 +3144,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -3152,7 +3160,7 @@
       <c r="M19" s="50"/>
       <c r="N19" s="50"/>
     </row>
-    <row r="20" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>206</v>
       </c>
@@ -3185,7 +3193,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="1"/>
       <c r="C21" s="16"/>
@@ -3210,7 +3218,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="1"/>
       <c r="C22" s="16"/>
@@ -3235,7 +3243,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="1"/>
       <c r="C23" s="16"/>
@@ -3260,7 +3268,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="1"/>
       <c r="C24" s="16"/>
@@ -3285,7 +3293,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="1"/>
       <c r="C25" s="16"/>
@@ -3310,7 +3318,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="1"/>
       <c r="C26" s="16"/>
@@ -3337,7 +3345,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="1"/>
       <c r="C27" s="16"/>
@@ -3362,7 +3370,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="1"/>
       <c r="C28" s="16"/>
@@ -3387,7 +3395,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="1"/>
       <c r="C29" s="16"/>
@@ -3412,7 +3420,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="1"/>
       <c r="C30" s="16"/>
@@ -3437,7 +3445,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="1"/>
       <c r="C31" s="16"/>
@@ -3462,7 +3470,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="1"/>
       <c r="C32" s="16"/>
@@ -3489,7 +3497,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="1"/>
       <c r="C33" s="16"/>
@@ -3514,7 +3522,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="1"/>
       <c r="C34" s="16"/>
@@ -3539,7 +3547,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="1"/>
       <c r="C35" s="16"/>
@@ -3564,7 +3572,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="1"/>
       <c r="C36" s="16"/>
@@ -3589,7 +3597,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="1"/>
       <c r="C37" s="16"/>
@@ -3614,7 +3622,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="1"/>
       <c r="C38" s="16"/>
@@ -3641,7 +3649,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="1"/>
       <c r="C39" s="16"/>
@@ -3666,7 +3674,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="1"/>
       <c r="C40" s="16"/>
@@ -3691,7 +3699,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="1"/>
       <c r="C41" s="16"/>
@@ -3716,7 +3724,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="1"/>
       <c r="C42" s="16"/>
@@ -3745,7 +3753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="1"/>
       <c r="C43" s="16"/>
@@ -3770,7 +3778,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="1"/>
       <c r="C44" s="22" t="s">
@@ -3789,7 +3797,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="43"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="1"/>
       <c r="C45" s="16"/>
@@ -3804,7 +3812,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="43"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="1"/>
       <c r="C46" s="16"/>
@@ -3819,7 +3827,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="43"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="1"/>
       <c r="C47" s="16"/>
@@ -3834,7 +3842,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="43"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="1"/>
       <c r="C48" s="16"/>
@@ -3849,7 +3857,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="43"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="1"/>
       <c r="C49" s="16"/>
@@ -3864,7 +3872,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="43"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="1"/>
       <c r="C50" s="16"/>
@@ -3881,7 +3889,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="43"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="1"/>
       <c r="C51" s="16"/>
@@ -3896,7 +3904,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="43"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="1"/>
       <c r="C52" s="16"/>
@@ -3911,7 +3919,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="43"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="1"/>
       <c r="C53" s="16"/>
@@ -3926,7 +3934,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="43"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="1"/>
       <c r="C54" s="16"/>
@@ -3941,7 +3949,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="43"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="1"/>
       <c r="C55" s="16"/>
@@ -3956,7 +3964,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="43"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="1"/>
       <c r="C56" s="16"/>
@@ -3973,7 +3981,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="43"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="1"/>
       <c r="C57" s="16"/>
@@ -3988,7 +3996,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="43"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="1"/>
       <c r="C58" s="16"/>
@@ -4003,7 +4011,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="43"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="1"/>
       <c r="C59" s="16"/>
@@ -4018,7 +4026,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="43"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="1"/>
       <c r="C60" s="16"/>
@@ -4033,7 +4041,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="43"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="1"/>
       <c r="C61" s="16"/>
@@ -4048,7 +4056,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="43"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="1"/>
       <c r="C62" s="16"/>
@@ -4065,7 +4073,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="43"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="1"/>
       <c r="C63" s="16"/>
@@ -4080,7 +4088,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="43"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="1"/>
       <c r="C64" s="16"/>
@@ -4095,7 +4103,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="43"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="1"/>
       <c r="C65" s="16"/>
@@ -4110,7 +4118,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="43"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="1"/>
       <c r="C66" s="16"/>
@@ -4125,7 +4133,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="43"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="1"/>
       <c r="C67" s="16"/>
@@ -4140,7 +4148,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="43"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="1"/>
       <c r="C68" s="16"/>
@@ -4153,7 +4161,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="43"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>207</v>
       </c>
@@ -4174,7 +4182,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="43"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="1"/>
       <c r="C70" s="16"/>
@@ -4189,7 +4197,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="43"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="1"/>
       <c r="C71" s="16"/>
@@ -4204,7 +4212,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="43"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="1"/>
       <c r="C72" s="16"/>
@@ -4219,7 +4227,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="43"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="1"/>
       <c r="C73" s="16"/>
@@ -4232,7 +4240,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="43"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
         <v>208</v>
       </c>
@@ -4253,7 +4261,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="43"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -4270,7 +4278,7 @@
       <c r="J75" s="17"/>
       <c r="K75" s="43"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -4285,7 +4293,7 @@
       <c r="J76" s="17"/>
       <c r="K76" s="43"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -4302,7 +4310,7 @@
       <c r="J77" s="17"/>
       <c r="K77" s="43"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -4315,7 +4323,7 @@
       <c r="J78" s="17"/>
       <c r="K78" s="43"/>
     </row>
-    <row r="79" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>216</v>
       </c>
@@ -4340,7 +4348,7 @@
       <c r="J79" s="17"/>
       <c r="K79" s="43"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -4368,7 +4376,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -4396,7 +4404,7 @@
         <v>10384990</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -4424,7 +4432,7 @@
         <v>10384993</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -4452,7 +4460,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -4482,7 +4490,7 @@
       <c r="M84" s="50"/>
       <c r="N84" s="50"/>
     </row>
-    <row r="85" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -4510,7 +4518,7 @@
       <c r="M85" s="51"/>
       <c r="N85" s="51"/>
     </row>
-    <row r="86" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -4540,7 +4548,7 @@
       <c r="M86" s="50"/>
       <c r="N86" s="50"/>
     </row>
-    <row r="87" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -4570,7 +4578,7 @@
       <c r="M87" s="50"/>
       <c r="N87" s="50"/>
     </row>
-    <row r="88" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -4600,7 +4608,7 @@
       <c r="M88" s="50"/>
       <c r="N88" s="50"/>
     </row>
-    <row r="89" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -4630,7 +4638,7 @@
       <c r="M89" s="50"/>
       <c r="N89" s="50"/>
     </row>
-    <row r="90" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -4658,7 +4666,7 @@
       <c r="M90" s="50"/>
       <c r="N90" s="50"/>
     </row>
-    <row r="91" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -4676,7 +4684,7 @@
       <c r="M91" s="50"/>
       <c r="N91" s="50"/>
     </row>
-    <row r="92" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -4694,7 +4702,7 @@
       <c r="M92" s="50"/>
       <c r="N92" s="50"/>
     </row>
-    <row r="93" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -4712,7 +4720,7 @@
       <c r="M93" s="50"/>
       <c r="N93" s="50"/>
     </row>
-    <row r="94" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -4730,7 +4738,7 @@
       <c r="M94" s="50"/>
       <c r="N94" s="50"/>
     </row>
-    <row r="95" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -4760,7 +4768,7 @@
       <c r="M95" s="52"/>
       <c r="N95" s="52"/>
     </row>
-    <row r="96" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -4775,7 +4783,7 @@
       <c r="J96" s="17"/>
       <c r="K96" s="43"/>
     </row>
-    <row r="97" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -4790,7 +4798,7 @@
       <c r="J97" s="17"/>
       <c r="K97" s="43"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -4805,7 +4813,7 @@
       <c r="J98" s="17"/>
       <c r="K98" s="43"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -4820,7 +4828,7 @@
       <c r="J99" s="17"/>
       <c r="K99" s="43"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -4835,7 +4843,7 @@
       <c r="J100" s="17"/>
       <c r="K100" s="43"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -4850,7 +4858,7 @@
       <c r="J101" s="17"/>
       <c r="K101" s="43"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -4865,7 +4873,7 @@
       <c r="J102" s="17"/>
       <c r="K102" s="43"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
@@ -4880,7 +4888,7 @@
       <c r="J103" s="17"/>
       <c r="K103" s="43"/>
     </row>
-    <row r="104" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
         <v>217</v>
       </c>
@@ -4897,7 +4905,7 @@
       <c r="J104" s="17"/>
       <c r="K104" s="43"/>
     </row>
-    <row r="105" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
         <v>218</v>
       </c>
@@ -4914,7 +4922,7 @@
       <c r="J105" s="17"/>
       <c r="K105" s="43"/>
     </row>
-    <row r="106" spans="1:14" s="15" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" s="15" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
         <v>218</v>
       </c>
@@ -4934,7 +4942,7 @@
       <c r="M106" s="50"/>
       <c r="N106" s="50"/>
     </row>
-    <row r="107" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
@@ -4949,7 +4957,7 @@
       <c r="J107" s="17"/>
       <c r="K107" s="43"/>
     </row>
-    <row r="108" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
@@ -4964,7 +4972,7 @@
       <c r="J108" s="17"/>
       <c r="K108" s="43"/>
     </row>
-    <row r="109" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -4979,7 +4987,7 @@
       <c r="J109" s="17"/>
       <c r="K109" s="43"/>
     </row>
-    <row r="110" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -4994,7 +5002,7 @@
       <c r="J110" s="17"/>
       <c r="K110" s="43"/>
     </row>
-    <row r="111" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
@@ -5009,7 +5017,7 @@
       <c r="J111" s="17"/>
       <c r="K111" s="43"/>
     </row>
-    <row r="112" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -5024,7 +5032,7 @@
       <c r="J112" s="17"/>
       <c r="K112" s="43"/>
     </row>
-    <row r="113" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -5039,7 +5047,7 @@
       <c r="J113" s="17"/>
       <c r="K113" s="43"/>
     </row>
-    <row r="114" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
@@ -5054,7 +5062,7 @@
       <c r="J114" s="17"/>
       <c r="K114" s="43"/>
     </row>
-    <row r="115" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
@@ -5072,7 +5080,7 @@
       <c r="M115" s="50"/>
       <c r="N115" s="50"/>
     </row>
-    <row r="116" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -5088,7 +5096,7 @@
       <c r="M116" s="50"/>
       <c r="N116" s="50"/>
     </row>
-    <row r="117" spans="1:14" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
         <v>216</v>
       </c>
@@ -5112,7 +5120,7 @@
       <c r="M117" s="50"/>
       <c r="N117" s="50"/>
     </row>
-    <row r="118" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
@@ -5142,7 +5150,7 @@
       <c r="M118" s="50"/>
       <c r="N118" s="50"/>
     </row>
-    <row r="119" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -5172,7 +5180,7 @@
       <c r="M119" s="50"/>
       <c r="N119" s="50"/>
     </row>
-    <row r="120" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
@@ -5202,7 +5210,7 @@
       <c r="M120" s="50"/>
       <c r="N120" s="50"/>
     </row>
-    <row r="121" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -5232,7 +5240,7 @@
       <c r="M121" s="50"/>
       <c r="N121" s="50"/>
     </row>
-    <row r="122" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
@@ -5262,7 +5270,7 @@
       <c r="M122" s="50"/>
       <c r="N122" s="50"/>
     </row>
-    <row r="123" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
@@ -5290,7 +5298,7 @@
       <c r="M123" s="51"/>
       <c r="N123" s="51"/>
     </row>
-    <row r="124" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
@@ -5320,7 +5328,7 @@
       <c r="M124" s="50"/>
       <c r="N124" s="50"/>
     </row>
-    <row r="125" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
@@ -5350,7 +5358,7 @@
       <c r="M125" s="50"/>
       <c r="N125" s="50"/>
     </row>
-    <row r="126" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
@@ -5378,7 +5386,7 @@
       <c r="M126" s="50"/>
       <c r="N126" s="50"/>
     </row>
-    <row r="127" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
@@ -5408,7 +5416,7 @@
       <c r="M127" s="50"/>
       <c r="N127" s="50"/>
     </row>
-    <row r="128" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
@@ -5436,7 +5444,7 @@
       <c r="M128" s="50"/>
       <c r="N128" s="50"/>
     </row>
-    <row r="129" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -5454,7 +5462,7 @@
       <c r="M129" s="50"/>
       <c r="N129" s="50"/>
     </row>
-    <row r="130" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
@@ -5472,7 +5480,7 @@
       <c r="M130" s="50"/>
       <c r="N130" s="50"/>
     </row>
-    <row r="131" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
@@ -5490,7 +5498,7 @@
       <c r="M131" s="50"/>
       <c r="N131" s="50"/>
     </row>
-    <row r="132" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -5508,7 +5516,7 @@
       <c r="M132" s="50"/>
       <c r="N132" s="50"/>
     </row>
-    <row r="133" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
@@ -5538,7 +5546,7 @@
       <c r="M133" s="52"/>
       <c r="N133" s="52"/>
     </row>
-    <row r="134" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
@@ -5556,7 +5564,7 @@
       <c r="M134" s="50"/>
       <c r="N134" s="50"/>
     </row>
-    <row r="135" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
@@ -5574,7 +5582,7 @@
       <c r="M135" s="50"/>
       <c r="N135" s="50"/>
     </row>
-    <row r="136" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
@@ -5592,7 +5600,7 @@
       <c r="M136" s="50"/>
       <c r="N136" s="50"/>
     </row>
-    <row r="137" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
@@ -5610,7 +5618,7 @@
       <c r="M137" s="50"/>
       <c r="N137" s="50"/>
     </row>
-    <row r="138" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
@@ -5628,7 +5636,7 @@
       <c r="M138" s="50"/>
       <c r="N138" s="50"/>
     </row>
-    <row r="139" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
@@ -5646,7 +5654,7 @@
       <c r="M139" s="50"/>
       <c r="N139" s="50"/>
     </row>
-    <row r="140" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="16"/>
       <c r="C140" s="16"/>
@@ -5664,7 +5672,7 @@
       <c r="M140" s="50"/>
       <c r="N140" s="50"/>
     </row>
-    <row r="141" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
@@ -5682,7 +5690,7 @@
       <c r="M141" s="50"/>
       <c r="N141" s="50"/>
     </row>
-    <row r="142" spans="1:14" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A142" s="23" t="s">
         <v>217</v>
       </c>
@@ -5702,7 +5710,7 @@
       <c r="M142" s="50"/>
       <c r="N142" s="50"/>
     </row>
-    <row r="143" spans="1:14" s="15" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" s="15" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A143" s="23" t="s">
         <v>218</v>
       </c>
@@ -5722,7 +5730,7 @@
       <c r="M143" s="50"/>
       <c r="N143" s="50"/>
     </row>
-    <row r="144" spans="1:14" s="15" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" s="15" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
         <v>218</v>
       </c>
@@ -5742,7 +5750,7 @@
       <c r="M144" s="50"/>
       <c r="N144" s="50"/>
     </row>
-    <row r="145" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="16"/>
       <c r="C145" s="16"/>
@@ -5760,7 +5768,7 @@
       <c r="M145" s="50"/>
       <c r="N145" s="50"/>
     </row>
-    <row r="146" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
@@ -5778,7 +5786,7 @@
       <c r="M146" s="50"/>
       <c r="N146" s="50"/>
     </row>
-    <row r="147" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
@@ -5796,7 +5804,7 @@
       <c r="M147" s="50"/>
       <c r="N147" s="50"/>
     </row>
-    <row r="148" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
@@ -5814,7 +5822,7 @@
       <c r="M148" s="50"/>
       <c r="N148" s="50"/>
     </row>
-    <row r="149" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
@@ -5832,7 +5840,7 @@
       <c r="M149" s="50"/>
       <c r="N149" s="50"/>
     </row>
-    <row r="150" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
@@ -5850,7 +5858,7 @@
       <c r="M150" s="50"/>
       <c r="N150" s="50"/>
     </row>
-    <row r="151" spans="1:14" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="16"/>
       <c r="C151" s="16"/>
@@ -5868,7 +5876,7 @@
       <c r="M151" s="50"/>
       <c r="N151" s="50"/>
     </row>
-    <row r="152" spans="1:14" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
@@ -5886,7 +5894,7 @@
       <c r="M152" s="50"/>
       <c r="N152" s="50"/>
     </row>
-    <row r="153" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="16"/>
       <c r="C153" s="16"/>
@@ -5904,7 +5912,7 @@
       <c r="M153" s="50"/>
       <c r="N153" s="50"/>
     </row>
-    <row r="154" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="16"/>
       <c r="C154" s="16"/>
@@ -5920,7 +5928,7 @@
       <c r="M154" s="50"/>
       <c r="N154" s="50"/>
     </row>
-    <row r="155" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
         <v>216</v>
       </c>
@@ -5941,7 +5949,7 @@
       <c r="J155" s="17"/>
       <c r="K155" s="43"/>
     </row>
-    <row r="156" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="16"/>
       <c r="C156" s="16"/>
@@ -5969,7 +5977,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
@@ -5997,7 +6005,7 @@
         <v>10384990</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
@@ -6022,7 +6030,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="16"/>
       <c r="C159" s="16"/>
@@ -6050,7 +6058,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="16"/>
       <c r="C160" s="16"/>
@@ -6078,7 +6086,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="16"/>
       <c r="C161" s="16"/>
@@ -6106,7 +6114,7 @@
       <c r="M161" s="51"/>
       <c r="N161" s="51"/>
     </row>
-    <row r="162" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
@@ -6134,7 +6142,7 @@
         <v>10444512</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="16"/>
       <c r="C163" s="16"/>
@@ -6162,7 +6170,7 @@
         <v>10444524</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="16"/>
       <c r="C164" s="16"/>
@@ -6187,7 +6195,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="16"/>
       <c r="C165" s="16"/>
@@ -6212,7 +6220,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="16"/>
       <c r="C166" s="16"/>
@@ -6237,7 +6245,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="16"/>
       <c r="C167" s="16"/>
@@ -6252,7 +6260,7 @@
       <c r="J167" s="17"/>
       <c r="K167" s="43"/>
     </row>
-    <row r="168" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="16"/>
       <c r="C168" s="16"/>
@@ -6267,7 +6275,7 @@
       <c r="J168" s="17"/>
       <c r="K168" s="43"/>
     </row>
-    <row r="169" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="16"/>
       <c r="C169" s="16"/>
@@ -6282,7 +6290,7 @@
       <c r="J169" s="17"/>
       <c r="K169" s="43"/>
     </row>
-    <row r="170" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="16"/>
       <c r="C170" s="16"/>
@@ -6297,7 +6305,7 @@
       <c r="J170" s="17"/>
       <c r="K170" s="43"/>
     </row>
-    <row r="171" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
@@ -6315,7 +6323,7 @@
       <c r="M171" s="52"/>
       <c r="N171" s="52"/>
     </row>
-    <row r="172" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
@@ -6330,7 +6338,7 @@
       <c r="J172" s="17"/>
       <c r="K172" s="43"/>
     </row>
-    <row r="173" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
@@ -6345,7 +6353,7 @@
       <c r="J173" s="17"/>
       <c r="K173" s="43"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="16"/>
       <c r="C174" s="16"/>
@@ -6360,7 +6368,7 @@
       <c r="J174" s="17"/>
       <c r="K174" s="43"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="16"/>
       <c r="C175" s="16"/>
@@ -6375,7 +6383,7 @@
       <c r="J175" s="17"/>
       <c r="K175" s="43"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="16"/>
       <c r="C176" s="16"/>
@@ -6390,7 +6398,7 @@
       <c r="J176" s="17"/>
       <c r="K176" s="43"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="16"/>
       <c r="C177" s="16"/>
@@ -6405,7 +6413,7 @@
       <c r="J177" s="17"/>
       <c r="K177" s="43"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="16"/>
       <c r="C178" s="16"/>
@@ -6420,7 +6428,7 @@
       <c r="J178" s="17"/>
       <c r="K178" s="43"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="16"/>
       <c r="C179" s="16"/>
@@ -6435,7 +6443,7 @@
       <c r="J179" s="17"/>
       <c r="K179" s="43"/>
     </row>
-    <row r="180" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="s">
         <v>217</v>
       </c>
@@ -6452,7 +6460,7 @@
       <c r="J180" s="17"/>
       <c r="K180" s="43"/>
     </row>
-    <row r="181" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A181" s="23" t="s">
         <v>218</v>
       </c>
@@ -6469,7 +6477,7 @@
       <c r="J181" s="17"/>
       <c r="K181" s="43"/>
     </row>
-    <row r="182" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A182" s="23" t="s">
         <v>218</v>
       </c>
@@ -6486,7 +6494,7 @@
       <c r="J182" s="17"/>
       <c r="K182" s="43"/>
     </row>
-    <row r="183" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="16"/>
       <c r="C183" s="16"/>
@@ -6501,7 +6509,7 @@
       <c r="J183" s="17"/>
       <c r="K183" s="43"/>
     </row>
-    <row r="184" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="16"/>
       <c r="C184" s="16"/>
@@ -6516,7 +6524,7 @@
       <c r="J184" s="17"/>
       <c r="K184" s="43"/>
     </row>
-    <row r="185" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="16"/>
       <c r="C185" s="16"/>
@@ -6531,7 +6539,7 @@
       <c r="J185" s="17"/>
       <c r="K185" s="43"/>
     </row>
-    <row r="186" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="16"/>
       <c r="C186" s="16"/>
@@ -6546,7 +6554,7 @@
       <c r="J186" s="17"/>
       <c r="K186" s="43"/>
     </row>
-    <row r="187" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="16"/>
       <c r="C187" s="16"/>
@@ -6561,7 +6569,7 @@
       <c r="J187" s="17"/>
       <c r="K187" s="43"/>
     </row>
-    <row r="188" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="16"/>
       <c r="C188" s="16"/>
@@ -6576,7 +6584,7 @@
       <c r="J188" s="17"/>
       <c r="K188" s="43"/>
     </row>
-    <row r="189" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="16"/>
       <c r="C189" s="16"/>
@@ -6591,7 +6599,7 @@
       <c r="J189" s="17"/>
       <c r="K189" s="43"/>
     </row>
-    <row r="190" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="16"/>
       <c r="C190" s="16"/>
@@ -6606,7 +6614,7 @@
       <c r="J190" s="17"/>
       <c r="K190" s="43"/>
     </row>
-    <row r="191" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="16"/>
       <c r="C191" s="16"/>
@@ -6624,7 +6632,7 @@
       <c r="M191" s="50"/>
       <c r="N191" s="50"/>
     </row>
-    <row r="192" spans="1:14" s="59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="53"/>
       <c r="B192" s="54"/>
       <c r="C192" s="54"/>
@@ -6642,7 +6650,7 @@
       <c r="M192" s="58"/>
       <c r="N192" s="58"/>
     </row>
-    <row r="193" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="16"/>
       <c r="C193" s="16"/>
@@ -6658,7 +6666,7 @@
       <c r="M193" s="50"/>
       <c r="N193" s="50"/>
     </row>
-    <row r="194" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="23" t="s">
         <v>216</v>
       </c>
@@ -6679,7 +6687,7 @@
       <c r="J194" s="17"/>
       <c r="K194" s="43"/>
     </row>
-    <row r="195" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="22"/>
       <c r="C195" s="22"/>
@@ -6707,7 +6715,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="16"/>
       <c r="C196" s="16"/>
@@ -6735,7 +6743,7 @@
         <v>10384990</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="16"/>
       <c r="C197" s="16"/>
@@ -6760,7 +6768,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="16"/>
       <c r="C198" s="16"/>
@@ -6788,7 +6796,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="16"/>
       <c r="C199" s="16"/>
@@ -6816,7 +6824,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="16"/>
       <c r="C200" s="16"/>
@@ -6844,7 +6852,7 @@
       <c r="M200" s="51"/>
       <c r="N200" s="51"/>
     </row>
-    <row r="201" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="16"/>
       <c r="C201" s="16"/>
@@ -6872,7 +6880,7 @@
         <v>10444512</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="16"/>
       <c r="C202" s="16"/>
@@ -6900,7 +6908,7 @@
         <v>10444524</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="16"/>
       <c r="C203" s="16"/>
@@ -6925,7 +6933,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="16"/>
       <c r="C204" s="16"/>
@@ -6950,7 +6958,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="205" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="16"/>
       <c r="C205" s="16"/>
@@ -6975,7 +6983,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="16"/>
       <c r="C206" s="16"/>
@@ -6990,7 +6998,7 @@
       <c r="J206" s="17"/>
       <c r="K206" s="43"/>
     </row>
-    <row r="207" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="16"/>
       <c r="C207" s="16"/>
@@ -7005,7 +7013,7 @@
       <c r="J207" s="17"/>
       <c r="K207" s="43"/>
     </row>
-    <row r="208" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="16"/>
       <c r="C208" s="16"/>
@@ -7020,7 +7028,7 @@
       <c r="J208" s="17"/>
       <c r="K208" s="43"/>
     </row>
-    <row r="209" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="16"/>
       <c r="C209" s="16"/>
@@ -7035,7 +7043,7 @@
       <c r="J209" s="17"/>
       <c r="K209" s="43"/>
     </row>
-    <row r="210" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="16"/>
       <c r="C210" s="16"/>
@@ -7053,7 +7061,7 @@
       <c r="M210" s="52"/>
       <c r="N210" s="52"/>
     </row>
-    <row r="211" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="16"/>
       <c r="C211" s="16"/>
@@ -7068,7 +7076,7 @@
       <c r="J211" s="17"/>
       <c r="K211" s="43"/>
     </row>
-    <row r="212" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="16"/>
       <c r="C212" s="16"/>
@@ -7083,7 +7091,7 @@
       <c r="J212" s="17"/>
       <c r="K212" s="43"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="16"/>
       <c r="C213" s="16"/>
@@ -7098,7 +7106,7 @@
       <c r="J213" s="17"/>
       <c r="K213" s="43"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="16"/>
       <c r="C214" s="16"/>
@@ -7113,7 +7121,7 @@
       <c r="J214" s="17"/>
       <c r="K214" s="43"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="16"/>
       <c r="C215" s="16"/>
@@ -7128,7 +7136,7 @@
       <c r="J215" s="17"/>
       <c r="K215" s="43"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="16"/>
       <c r="C216" s="16"/>
@@ -7143,7 +7151,7 @@
       <c r="J216" s="17"/>
       <c r="K216" s="43"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="16"/>
       <c r="C217" s="16"/>
@@ -7158,7 +7166,7 @@
       <c r="J217" s="17"/>
       <c r="K217" s="43"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="16"/>
       <c r="C218" s="16"/>
@@ -7173,7 +7181,7 @@
       <c r="J218" s="17"/>
       <c r="K218" s="43"/>
     </row>
-    <row r="219" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A219" s="23" t="s">
         <v>217</v>
       </c>
@@ -7190,7 +7198,7 @@
       <c r="J219" s="17"/>
       <c r="K219" s="43"/>
     </row>
-    <row r="220" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A220" s="23" t="s">
         <v>218</v>
       </c>
@@ -7207,7 +7215,7 @@
       <c r="J220" s="17"/>
       <c r="K220" s="43"/>
     </row>
-    <row r="221" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A221" s="23" t="s">
         <v>218</v>
       </c>
@@ -7224,7 +7232,7 @@
       <c r="J221" s="17"/>
       <c r="K221" s="43"/>
     </row>
-    <row r="222" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="16"/>
       <c r="C222" s="16"/>
@@ -7239,7 +7247,7 @@
       <c r="J222" s="17"/>
       <c r="K222" s="43"/>
     </row>
-    <row r="223" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="16"/>
       <c r="C223" s="16"/>
@@ -7254,7 +7262,7 @@
       <c r="J223" s="17"/>
       <c r="K223" s="43"/>
     </row>
-    <row r="224" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="16"/>
       <c r="C224" s="16"/>
@@ -7269,7 +7277,7 @@
       <c r="J224" s="17"/>
       <c r="K224" s="43"/>
     </row>
-    <row r="225" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="16"/>
       <c r="C225" s="16"/>
@@ -7284,7 +7292,7 @@
       <c r="J225" s="17"/>
       <c r="K225" s="43"/>
     </row>
-    <row r="226" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="16"/>
       <c r="C226" s="16"/>
@@ -7299,7 +7307,7 @@
       <c r="J226" s="17"/>
       <c r="K226" s="43"/>
     </row>
-    <row r="227" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="16"/>
       <c r="C227" s="16"/>
@@ -7314,7 +7322,7 @@
       <c r="J227" s="17"/>
       <c r="K227" s="43"/>
     </row>
-    <row r="228" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="16"/>
       <c r="C228" s="16"/>
@@ -7329,7 +7337,7 @@
       <c r="J228" s="17"/>
       <c r="K228" s="43"/>
     </row>
-    <row r="229" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="16"/>
       <c r="C229" s="16"/>
@@ -7344,7 +7352,7 @@
       <c r="J229" s="17"/>
       <c r="K229" s="43"/>
     </row>
-    <row r="230" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="16"/>
       <c r="C230" s="16"/>
@@ -7362,7 +7370,7 @@
       <c r="M230" s="50"/>
       <c r="N230" s="50"/>
     </row>
-    <row r="231" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="16"/>
       <c r="C231" s="16"/>
@@ -7378,7 +7386,7 @@
       <c r="M231" s="50"/>
       <c r="N231" s="50"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="16"/>
       <c r="C232" s="16"/>
@@ -7391,7 +7399,7 @@
       <c r="J232" s="17"/>
       <c r="K232" s="43"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="23" t="s">
         <v>209</v>
       </c>
@@ -7435,7 +7443,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="16"/>
       <c r="C234" s="16"/>
@@ -7465,7 +7473,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="16"/>
       <c r="C235" s="16"/>
@@ -7495,7 +7503,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="16"/>
       <c r="C236" s="16"/>
@@ -7521,7 +7529,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="16"/>
       <c r="C237" s="16"/>
@@ -7547,7 +7555,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="16"/>
       <c r="C238" s="16"/>
@@ -7573,7 +7581,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="16"/>
       <c r="C239" s="16"/>
@@ -7609,7 +7617,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="16"/>
       <c r="C240" s="16"/>
@@ -7645,7 +7653,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="16"/>
       <c r="C241" s="22" t="s">
@@ -7677,7 +7685,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="16"/>
       <c r="C242" s="16"/>
@@ -7705,7 +7713,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="16"/>
       <c r="C243" s="16"/>
@@ -7733,7 +7741,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="16"/>
       <c r="C244" s="16"/>
@@ -7751,7 +7759,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="16"/>
       <c r="C245" s="16"/>
@@ -7769,7 +7777,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="16"/>
       <c r="C246" s="16"/>
@@ -7787,7 +7795,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="16"/>
       <c r="C247" s="16"/>
@@ -7815,7 +7823,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="16"/>
       <c r="C248" s="16"/>
@@ -7843,7 +7851,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="16"/>
       <c r="C249" s="22" t="s">
@@ -7875,7 +7883,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="16"/>
       <c r="C250" s="16"/>
@@ -7903,7 +7911,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="16"/>
       <c r="C251" s="16"/>
@@ -7931,7 +7939,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="16"/>
       <c r="C252" s="16"/>
@@ -7949,7 +7957,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="16"/>
       <c r="C253" s="16"/>
@@ -7967,7 +7975,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="16"/>
       <c r="C254" s="16"/>
@@ -7985,7 +7993,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="16"/>
       <c r="C255" s="16"/>
@@ -8013,7 +8021,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="16"/>
       <c r="C256" s="16"/>
@@ -8041,7 +8049,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="16"/>
       <c r="C257" s="22" t="s">
@@ -8073,7 +8081,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="16"/>
       <c r="C258" s="16"/>
@@ -8101,7 +8109,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="16"/>
       <c r="C259" s="16"/>
@@ -8129,7 +8137,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="16"/>
       <c r="C260" s="16"/>
@@ -8147,7 +8155,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="16"/>
       <c r="C261" s="16"/>
@@ -8165,7 +8173,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="16"/>
       <c r="C262" s="16"/>
@@ -8183,7 +8191,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="16"/>
       <c r="C263" s="16"/>
@@ -8211,7 +8219,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="16"/>
       <c r="C264" s="16"/>
@@ -8239,7 +8247,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="C265" s="16"/>
       <c r="D265" s="16"/>
@@ -8251,7 +8259,7 @@
       <c r="J265" s="17"/>
       <c r="K265" s="43"/>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="23" t="s">
         <v>210</v>
       </c>
@@ -8287,7 +8295,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="16"/>
       <c r="C267" s="16"/>
@@ -8312,7 +8320,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="16"/>
       <c r="C268" s="16"/>
@@ -8337,7 +8345,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="16"/>
       <c r="C269" s="16"/>
@@ -8362,7 +8370,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="16"/>
       <c r="C270" s="16"/>
@@ -8398,7 +8406,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="16"/>
       <c r="C271" s="16"/>
@@ -8434,7 +8442,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="16"/>
       <c r="C272" s="16"/>
@@ -8470,7 +8478,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="16"/>
       <c r="C273" s="22" t="s">
@@ -8502,7 +8510,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="16"/>
       <c r="C274" s="16"/>
@@ -8527,7 +8535,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="16"/>
       <c r="C275" s="16"/>
@@ -8552,7 +8560,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="16"/>
       <c r="C276" s="16"/>
@@ -8577,7 +8585,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="16"/>
       <c r="C277" s="16"/>
@@ -8605,7 +8613,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="16"/>
       <c r="C278" s="16"/>
@@ -8633,7 +8641,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="16"/>
       <c r="C279" s="16"/>
@@ -8661,7 +8669,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="23"/>
       <c r="B280" s="16"/>
       <c r="C280" s="22" t="s">
@@ -8693,7 +8701,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="16"/>
       <c r="C281" s="22"/>
@@ -8718,7 +8726,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="16"/>
       <c r="C282" s="16"/>
@@ -8743,7 +8751,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="16"/>
       <c r="C283" s="16"/>
@@ -8768,7 +8776,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="16"/>
       <c r="C284" s="16"/>
@@ -8796,7 +8804,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="16"/>
       <c r="C285" s="16"/>
@@ -8824,7 +8832,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="16"/>
       <c r="C286" s="16"/>
@@ -8852,7 +8860,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="16"/>
       <c r="C287" s="22" t="s">
@@ -8884,7 +8892,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="16"/>
       <c r="C288" s="16"/>
@@ -8909,7 +8917,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="16"/>
       <c r="C289" s="16"/>
@@ -8934,7 +8942,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="16"/>
       <c r="C290" s="16"/>
@@ -8959,7 +8967,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="16"/>
       <c r="C291" s="16"/>
@@ -8987,7 +8995,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="16"/>
       <c r="C292" s="16"/>
@@ -9015,7 +9023,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="16"/>
       <c r="C293" s="16"/>
@@ -9043,7 +9051,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="16"/>
       <c r="C294" s="16"/>
@@ -9056,7 +9064,7 @@
       <c r="J294" s="17"/>
       <c r="K294" s="43"/>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="22" t="s">
         <v>9</v>
@@ -9087,7 +9095,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="16"/>
       <c r="C296" s="23" t="s">
@@ -9116,7 +9124,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="16"/>
       <c r="C297" s="23" t="s">
@@ -9145,7 +9153,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="16"/>
       <c r="C298" s="23" t="s">
@@ -9174,7 +9182,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="16"/>
       <c r="C299" s="16"/>
@@ -9187,7 +9195,7 @@
       <c r="J299" s="17"/>
       <c r="K299" s="43"/>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="23" t="s">
         <v>211</v>
       </c>
@@ -9210,7 +9218,7 @@
       <c r="J300" s="17"/>
       <c r="K300" s="43"/>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="23" t="s">
         <v>212</v>
       </c>
@@ -9227,7 +9235,7 @@
       <c r="J301" s="17"/>
       <c r="K301" s="43"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="23" t="s">
         <v>213</v>
       </c>
@@ -9244,7 +9252,7 @@
       <c r="J302" s="17"/>
       <c r="K302" s="43"/>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="23" t="s">
         <v>213</v>
       </c>
@@ -9261,7 +9269,7 @@
       <c r="J303" s="17"/>
       <c r="K303" s="43"/>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="23" t="s">
         <v>214</v>
       </c>
@@ -9278,7 +9286,7 @@
       <c r="J304" s="17"/>
       <c r="K304" s="43"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23" t="s">
         <v>215</v>
       </c>
@@ -9295,7 +9303,7 @@
       <c r="J305" s="17"/>
       <c r="K305" s="43"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23" t="s">
         <v>215</v>
       </c>
@@ -9322,7 +9330,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23" t="s">
         <v>215</v>
       </c>
@@ -9349,7 +9357,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23" t="s">
         <v>211</v>
       </c>
@@ -9370,7 +9378,7 @@
       <c r="J308" s="17"/>
       <c r="K308" s="43"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23" t="s">
         <v>212</v>
       </c>
@@ -9387,7 +9395,7 @@
       <c r="J309" s="17"/>
       <c r="K309" s="43"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23" t="s">
         <v>213</v>
       </c>
@@ -9404,7 +9412,7 @@
       <c r="J310" s="17"/>
       <c r="K310" s="43"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23" t="s">
         <v>213</v>
       </c>
@@ -9421,7 +9429,7 @@
       <c r="J311" s="17"/>
       <c r="K311" s="43"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23" t="s">
         <v>214</v>
       </c>
@@ -9438,7 +9446,7 @@
       <c r="J312" s="17"/>
       <c r="K312" s="43"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23" t="s">
         <v>215</v>
       </c>
@@ -9455,7 +9463,7 @@
       <c r="J313" s="17"/>
       <c r="K313" s="43"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23" t="s">
         <v>215</v>
       </c>
@@ -9482,7 +9490,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23" t="s">
         <v>215</v>
       </c>
@@ -9509,7 +9517,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23" t="s">
         <v>201</v>
       </c>
@@ -9530,7 +9538,7 @@
       <c r="J316" s="17"/>
       <c r="K316" s="43"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23"/>
       <c r="B317" s="16"/>
       <c r="C317" s="16"/>
@@ -9545,7 +9553,7 @@
       <c r="J317" s="17"/>
       <c r="K317" s="43"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="16"/>
       <c r="C318" s="16"/>
@@ -9560,7 +9568,7 @@
       <c r="J318" s="17"/>
       <c r="K318" s="43"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="16"/>
       <c r="C319" s="16"/>
@@ -9575,7 +9583,7 @@
       <c r="J319" s="17"/>
       <c r="K319" s="43"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="16"/>
       <c r="C320" s="16"/>
@@ -9590,7 +9598,7 @@
       <c r="J320" s="17"/>
       <c r="K320" s="43"/>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="16"/>
       <c r="C321" s="16"/>
@@ -9605,7 +9613,7 @@
       <c r="J321" s="17"/>
       <c r="K321" s="43"/>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="16"/>
       <c r="C322" s="16"/>
@@ -9630,7 +9638,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="16"/>
       <c r="C323" s="16"/>
@@ -9655,7 +9663,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="16"/>
       <c r="C324" s="23" t="s">
@@ -9674,7 +9682,7 @@
       <c r="J324" s="17"/>
       <c r="K324" s="43"/>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="16"/>
       <c r="C325" s="16"/>
@@ -9689,7 +9697,7 @@
       <c r="J325" s="17"/>
       <c r="K325" s="43"/>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="16"/>
       <c r="C326" s="16"/>
@@ -9704,7 +9712,7 @@
       <c r="J326" s="17"/>
       <c r="K326" s="43"/>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="16"/>
       <c r="C327" s="16"/>
@@ -9719,7 +9727,7 @@
       <c r="J327" s="17"/>
       <c r="K327" s="43"/>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="16"/>
       <c r="C328" s="16"/>
@@ -9734,7 +9742,7 @@
       <c r="J328" s="17"/>
       <c r="K328" s="43"/>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="16"/>
       <c r="C329" s="16"/>
@@ -9749,7 +9757,7 @@
       <c r="J329" s="17"/>
       <c r="K329" s="43"/>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="16"/>
       <c r="C330" s="16"/>
@@ -9774,7 +9782,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="16"/>
       <c r="C331" s="16"/>
@@ -9799,7 +9807,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="16"/>
       <c r="C332" s="16"/>
@@ -9812,7 +9820,7 @@
       <c r="J332" s="17"/>
       <c r="K332" s="43"/>
     </row>
-    <row r="333" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="23" t="s">
         <v>210</v>
       </c>
@@ -9835,7 +9843,7 @@
       <c r="J333" s="17"/>
       <c r="K333" s="43"/>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="16"/>
       <c r="C334" s="16"/>
@@ -9861,7 +9869,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="16"/>
       <c r="C335" s="16"/>
@@ -9891,7 +9899,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="16"/>
       <c r="C336" s="16"/>
@@ -9921,7 +9929,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="16"/>
       <c r="C337" s="16"/>
@@ -9951,7 +9959,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="16"/>
       <c r="C338" s="16"/>
@@ -9981,7 +9989,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="16"/>
       <c r="C339" s="16"/>
@@ -10011,7 +10019,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="16"/>
       <c r="C340" s="16"/>
@@ -10041,7 +10049,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="16"/>
       <c r="C341" s="16"/>
@@ -10077,7 +10085,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="16"/>
       <c r="C342" s="16"/>
@@ -10107,7 +10115,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="16"/>
       <c r="C343" s="16"/>
@@ -10137,7 +10145,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="16"/>
       <c r="C344" s="16"/>
@@ -10167,7 +10175,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="16"/>
       <c r="C345" s="16"/>
@@ -10197,7 +10205,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
       <c r="B346" s="16"/>
       <c r="C346" s="16"/>
@@ -10227,7 +10235,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="16"/>
       <c r="C347" s="16"/>
@@ -10263,7 +10271,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="16"/>
       <c r="C348" s="16"/>
@@ -10293,7 +10301,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="16"/>
       <c r="C349" s="16"/>
@@ -10323,7 +10331,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" s="23"/>
       <c r="B350" s="16"/>
       <c r="C350" s="16"/>
@@ -10353,7 +10361,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" s="23"/>
       <c r="B351" s="16"/>
       <c r="C351" s="16"/>
@@ -10383,7 +10391,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="352" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="23" t="s">
         <v>210</v>
       </c>
@@ -10404,7 +10412,7 @@
       <c r="J352" s="17"/>
       <c r="K352" s="43"/>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="23"/>
       <c r="B353" s="16"/>
       <c r="C353" s="16"/>
@@ -10422,7 +10430,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="16"/>
       <c r="C354" s="16"/>
@@ -10450,7 +10458,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="16"/>
       <c r="C355" s="16"/>
@@ -10478,7 +10486,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="23"/>
       <c r="B356" s="16"/>
       <c r="C356" s="16"/>
@@ -10506,7 +10514,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="16"/>
       <c r="C357" s="16"/>
@@ -10534,7 +10542,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="16"/>
       <c r="C358" s="16"/>
@@ -10562,7 +10570,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="16"/>
       <c r="C359" s="16"/>
@@ -10590,7 +10598,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="16"/>
       <c r="C360" s="16"/>
@@ -10618,7 +10626,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="23"/>
       <c r="B361" s="16"/>
       <c r="C361" s="16"/>
@@ -10646,7 +10654,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
       <c r="B362" s="16"/>
       <c r="C362" s="16"/>
@@ -10674,7 +10682,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
       <c r="B363" s="16"/>
       <c r="C363" s="16"/>
@@ -10702,7 +10710,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="16"/>
       <c r="C364" s="16"/>
@@ -10730,7 +10738,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="16"/>
       <c r="C365" s="16"/>
@@ -10758,7 +10766,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="23"/>
       <c r="B366" s="16"/>
       <c r="C366" s="16"/>
@@ -10786,7 +10794,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="16"/>
       <c r="C367" s="16"/>
@@ -10814,7 +10822,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="16"/>
       <c r="C368" s="16"/>
@@ -10842,7 +10850,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="16"/>
       <c r="C369" s="16"/>
@@ -10870,7 +10878,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="16"/>
       <c r="C370" s="16"/>
@@ -10898,7 +10906,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="371" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="23" t="s">
         <v>210</v>
       </c>
@@ -10919,7 +10927,7 @@
       <c r="J371" s="17"/>
       <c r="K371" s="43"/>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="23"/>
       <c r="B372" s="16"/>
       <c r="C372" s="16"/>
@@ -10937,7 +10945,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="16"/>
       <c r="C373" s="16"/>
@@ -10965,7 +10973,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="16"/>
       <c r="C374" s="16"/>
@@ -10993,7 +11001,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="23"/>
       <c r="B375" s="16"/>
       <c r="C375" s="16"/>
@@ -11021,7 +11029,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="16"/>
       <c r="C376" s="16"/>
@@ -11049,7 +11057,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="16"/>
       <c r="C377" s="16"/>
@@ -11077,7 +11085,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="16"/>
       <c r="C378" s="16"/>
@@ -11105,7 +11113,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="23"/>
       <c r="B379" s="16"/>
       <c r="C379" s="16"/>
@@ -11133,7 +11141,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
       <c r="B380" s="16"/>
       <c r="C380" s="16"/>
@@ -11161,7 +11169,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="16"/>
       <c r="C381" s="16"/>
@@ -11189,7 +11197,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="16"/>
       <c r="C382" s="16"/>
@@ -11217,7 +11225,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="16"/>
       <c r="C383" s="16"/>
@@ -11245,7 +11253,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="16"/>
       <c r="C384" s="16"/>
@@ -11273,7 +11281,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="23"/>
       <c r="B385" s="16"/>
       <c r="C385" s="16"/>
@@ -11301,7 +11309,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="16"/>
       <c r="C386" s="16"/>
@@ -11329,7 +11337,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="23"/>
       <c r="B387" s="16"/>
       <c r="C387" s="16"/>
@@ -11357,7 +11365,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="23"/>
       <c r="B388" s="16"/>
       <c r="C388" s="16"/>
@@ -11385,7 +11393,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="16"/>
       <c r="C389" s="16"/>
@@ -11413,7 +11421,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="390" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="23" t="s">
         <v>210</v>
       </c>
@@ -11434,7 +11442,7 @@
       <c r="J390" s="17"/>
       <c r="K390" s="43"/>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="23"/>
       <c r="B391" s="16"/>
       <c r="C391" s="16"/>
@@ -11452,7 +11460,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="23"/>
       <c r="B392" s="16"/>
       <c r="C392" s="16"/>
@@ -11480,7 +11488,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="16"/>
       <c r="C393" s="16"/>
@@ -11508,7 +11516,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="23"/>
       <c r="B394" s="16"/>
       <c r="C394" s="16"/>
@@ -11536,7 +11544,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="23"/>
       <c r="B395" s="16"/>
       <c r="C395" s="16"/>
@@ -11564,7 +11572,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="16"/>
       <c r="C396" s="16"/>
@@ -11592,7 +11600,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="23"/>
       <c r="B397" s="16"/>
       <c r="C397" s="16"/>
@@ -11620,7 +11628,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="16"/>
       <c r="C398" s="16"/>
@@ -11648,7 +11656,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="16"/>
       <c r="C399" s="16"/>
@@ -11676,7 +11684,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="16"/>
       <c r="C400" s="16"/>
@@ -11704,7 +11712,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="16"/>
       <c r="C401" s="16"/>
@@ -11732,7 +11740,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" s="23"/>
       <c r="B402" s="16"/>
       <c r="C402" s="16"/>
@@ -11760,7 +11768,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="16"/>
       <c r="C403" s="16"/>
@@ -11788,7 +11796,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" s="23"/>
       <c r="B404" s="16"/>
       <c r="C404" s="16"/>
@@ -11816,7 +11824,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" s="23"/>
       <c r="B405" s="16"/>
       <c r="C405" s="16"/>
@@ -11844,7 +11852,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" s="23"/>
       <c r="B406" s="16"/>
       <c r="C406" s="16"/>
@@ -11872,7 +11880,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="16"/>
       <c r="C407" s="16"/>
@@ -11900,7 +11908,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" s="23"/>
       <c r="B408" s="16"/>
       <c r="C408" s="16"/>
@@ -11928,7 +11936,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="409" spans="1:14" s="119" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:14" s="119" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A409" s="66"/>
       <c r="B409" s="117"/>
       <c r="C409" s="117"/>
@@ -11948,7 +11956,7 @@
       <c r="M409" s="65"/>
       <c r="N409" s="65"/>
     </row>
-    <row r="410" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="66"/>
       <c r="B410" s="117"/>
       <c r="C410" s="117"/>
@@ -11968,7 +11976,7 @@
       <c r="M410" s="65"/>
       <c r="N410" s="65"/>
     </row>
-    <row r="411" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="26" t="s">
         <v>193</v>
@@ -11985,7 +11993,7 @@
       <c r="J411" s="17"/>
       <c r="K411" s="43"/>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" s="23"/>
       <c r="B412" s="16"/>
       <c r="C412" s="16"/>
@@ -12000,7 +12008,7 @@
       <c r="J412" s="17"/>
       <c r="K412" s="43"/>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" s="23"/>
       <c r="B413" s="16"/>
       <c r="C413" s="16"/>
@@ -12015,7 +12023,7 @@
       <c r="J413" s="17"/>
       <c r="K413" s="43"/>
     </row>
-    <row r="414" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="23"/>
       <c r="B414" s="16"/>
       <c r="C414" s="16"/>
@@ -12030,7 +12038,7 @@
       <c r="J414" s="17"/>
       <c r="K414" s="43"/>
     </row>
-    <row r="415" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="16"/>
       <c r="C415" s="16"/>
@@ -12045,7 +12053,7 @@
       <c r="J415" s="17"/>
       <c r="K415" s="43"/>
     </row>
-    <row r="416" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="23"/>
       <c r="B416" s="16"/>
       <c r="C416" s="16"/>
@@ -12060,7 +12068,7 @@
       <c r="J416" s="17"/>
       <c r="K416" s="43"/>
     </row>
-    <row r="417" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="23"/>
       <c r="B417" s="16"/>
       <c r="C417" s="16"/>
@@ -12075,7 +12083,7 @@
       <c r="J417" s="17"/>
       <c r="K417" s="43"/>
     </row>
-    <row r="418" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="23"/>
       <c r="B418" s="16"/>
       <c r="C418" s="16"/>
@@ -12090,7 +12098,7 @@
       <c r="J418" s="17"/>
       <c r="K418" s="43"/>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" s="23"/>
       <c r="B419" s="26"/>
       <c r="C419" s="16"/>
@@ -12103,7 +12111,7 @@
       <c r="J419" s="17"/>
       <c r="K419" s="43"/>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="26" t="s">
         <v>465</v>
@@ -12122,7 +12130,7 @@
       <c r="J420" s="17"/>
       <c r="K420" s="43"/>
     </row>
-    <row r="421" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="26"/>
       <c r="C421" s="16"/>
@@ -12142,7 +12150,7 @@
       <c r="M421" s="50"/>
       <c r="N421" s="50"/>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" s="23"/>
       <c r="B422" s="16"/>
       <c r="C422" s="16"/>
@@ -12159,7 +12167,7 @@
       <c r="J422" s="17"/>
       <c r="K422" s="43"/>
     </row>
-    <row r="423" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:14" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="23"/>
       <c r="B423" s="16"/>
       <c r="C423" s="16"/>
@@ -12179,7 +12187,7 @@
       <c r="M423" s="50"/>
       <c r="N423" s="50"/>
     </row>
-    <row r="424" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="23"/>
       <c r="B424" s="16"/>
       <c r="C424" s="16"/>
@@ -12196,7 +12204,7 @@
       <c r="J424" s="17"/>
       <c r="K424" s="43"/>
     </row>
-    <row r="425" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="16"/>
       <c r="C425" s="16"/>
@@ -12213,7 +12221,7 @@
       <c r="J425" s="17"/>
       <c r="K425" s="43"/>
     </row>
-    <row r="426" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="16"/>
       <c r="C426" s="16"/>
@@ -12233,7 +12241,7 @@
       <c r="M426" s="50"/>
       <c r="N426" s="50"/>
     </row>
-    <row r="427" spans="1:14" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:14" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="23"/>
       <c r="B427" s="16"/>
       <c r="C427" s="16"/>
@@ -12250,7 +12258,7 @@
       <c r="J427" s="17"/>
       <c r="K427" s="43"/>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" s="23"/>
       <c r="B428" s="16"/>
       <c r="C428" s="16"/>
@@ -12263,7 +12271,7 @@
       <c r="J428" s="17"/>
       <c r="K428" s="43"/>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" s="23"/>
       <c r="B429" s="16"/>
       <c r="C429" s="16"/>
@@ -12276,7 +12284,7 @@
       <c r="J429" s="17"/>
       <c r="K429" s="43"/>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" s="23"/>
       <c r="B430" s="16"/>
       <c r="C430" s="16"/>
@@ -12289,7 +12297,7 @@
       <c r="J430" s="17"/>
       <c r="K430" s="43"/>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" s="23"/>
       <c r="B431" s="16"/>
       <c r="C431" s="16"/>
@@ -12302,7 +12310,7 @@
       <c r="J431" s="17"/>
       <c r="K431" s="43"/>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" s="23"/>
       <c r="B432" s="16"/>
       <c r="C432" s="16"/>
@@ -12315,7 +12323,7 @@
       <c r="J432" s="17"/>
       <c r="K432" s="43"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="16"/>
       <c r="C433" s="16"/>
@@ -12328,7 +12336,7 @@
       <c r="J433" s="17"/>
       <c r="K433" s="43"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23"/>
       <c r="B434" s="16"/>
       <c r="C434" s="16"/>
@@ -12341,7 +12349,7 @@
       <c r="J434" s="17"/>
       <c r="K434" s="43"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23"/>
       <c r="B435" s="16"/>
       <c r="C435" s="16"/>
@@ -12354,7 +12362,7 @@
       <c r="J435" s="17"/>
       <c r="K435" s="43"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="16"/>
       <c r="C436" s="16"/>
@@ -12367,7 +12375,7 @@
       <c r="J436" s="17"/>
       <c r="K436" s="43"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23"/>
       <c r="B437" s="16"/>
       <c r="C437" s="16"/>
@@ -12380,7 +12388,7 @@
       <c r="J437" s="17"/>
       <c r="K437" s="43"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23"/>
       <c r="B438" s="16"/>
       <c r="C438" s="16"/>
@@ -12393,7 +12401,7 @@
       <c r="J438" s="17"/>
       <c r="K438" s="43"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23"/>
       <c r="B439" s="16"/>
       <c r="C439" s="16"/>
@@ -12406,7 +12414,7 @@
       <c r="J439" s="17"/>
       <c r="K439" s="43"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23"/>
       <c r="B440" s="16"/>
       <c r="C440" s="16"/>
@@ -12419,7 +12427,7 @@
       <c r="J440" s="17"/>
       <c r="K440" s="43"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23"/>
       <c r="B441" s="16"/>
       <c r="C441" s="16"/>
@@ -12432,7 +12440,7 @@
       <c r="J441" s="17"/>
       <c r="K441" s="43"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23"/>
       <c r="B442" s="16"/>
       <c r="C442" s="16"/>
@@ -12445,7 +12453,7 @@
       <c r="J442" s="17"/>
       <c r="K442" s="43"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23"/>
       <c r="B443" s="16"/>
       <c r="C443" s="16"/>
@@ -12458,7 +12466,7 @@
       <c r="J443" s="17"/>
       <c r="K443" s="43"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23"/>
       <c r="B444" s="16"/>
       <c r="C444" s="16"/>
@@ -12471,7 +12479,7 @@
       <c r="J444" s="17"/>
       <c r="K444" s="43"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23"/>
       <c r="B445" s="16"/>
       <c r="C445" s="16"/>
@@ -12484,7 +12492,7 @@
       <c r="J445" s="17"/>
       <c r="K445" s="43"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23"/>
       <c r="B446" s="16"/>
       <c r="C446" s="16"/>
@@ -12497,7 +12505,7 @@
       <c r="J446" s="17"/>
       <c r="K446" s="43"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23"/>
       <c r="B447" s="16"/>
       <c r="C447" s="16"/>
@@ -12510,7 +12518,7 @@
       <c r="J447" s="17"/>
       <c r="K447" s="43"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="16"/>
       <c r="C448" s="16"/>
@@ -12523,7 +12531,7 @@
       <c r="J448" s="17"/>
       <c r="K448" s="43"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23"/>
       <c r="B449" s="16"/>
       <c r="C449" s="16"/>
@@ -12536,7 +12544,7 @@
       <c r="J449" s="17"/>
       <c r="K449" s="43"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23"/>
       <c r="B450" s="16"/>
       <c r="C450" s="16"/>
@@ -12549,7 +12557,7 @@
       <c r="J450" s="17"/>
       <c r="K450" s="43"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23"/>
       <c r="B451" s="16"/>
       <c r="C451" s="16"/>
@@ -12562,7 +12570,7 @@
       <c r="J451" s="17"/>
       <c r="K451" s="43"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23"/>
       <c r="B452" s="16"/>
       <c r="C452" s="16"/>
@@ -12575,7 +12583,7 @@
       <c r="J452" s="17"/>
       <c r="K452" s="43"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="16"/>
       <c r="C453" s="16"/>
@@ -12588,7 +12596,7 @@
       <c r="J453" s="17"/>
       <c r="K453" s="43"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23"/>
       <c r="B454" s="16"/>
       <c r="C454" s="16"/>
@@ -12601,7 +12609,7 @@
       <c r="J454" s="17"/>
       <c r="K454" s="43"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23"/>
       <c r="B455" s="16"/>
       <c r="C455" s="16"/>
@@ -12614,7 +12622,7 @@
       <c r="J455" s="17"/>
       <c r="K455" s="43"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23"/>
       <c r="B456" s="16"/>
       <c r="C456" s="16"/>
@@ -12627,7 +12635,7 @@
       <c r="J456" s="17"/>
       <c r="K456" s="43"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23"/>
       <c r="B457" s="16"/>
       <c r="C457" s="16"/>
@@ -12640,7 +12648,7 @@
       <c r="J457" s="17"/>
       <c r="K457" s="43"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23"/>
       <c r="B458" s="16"/>
       <c r="C458" s="16"/>
@@ -12653,7 +12661,7 @@
       <c r="J458" s="17"/>
       <c r="K458" s="43"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23"/>
       <c r="B459" s="16"/>
       <c r="C459" s="16"/>
@@ -12666,7 +12674,7 @@
       <c r="J459" s="17"/>
       <c r="K459" s="43"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23"/>
       <c r="B460" s="16"/>
       <c r="C460" s="16"/>
@@ -12679,7 +12687,7 @@
       <c r="J460" s="17"/>
       <c r="K460" s="43"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23"/>
       <c r="B461" s="16"/>
       <c r="C461" s="16"/>
@@ -12692,7 +12700,7 @@
       <c r="J461" s="17"/>
       <c r="K461" s="43"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23"/>
       <c r="B462" s="16"/>
       <c r="C462" s="16"/>
@@ -12705,7 +12713,7 @@
       <c r="J462" s="17"/>
       <c r="K462" s="43"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23"/>
       <c r="B463" s="16"/>
       <c r="C463" s="16"/>
@@ -12718,7 +12726,7 @@
       <c r="J463" s="17"/>
       <c r="K463" s="43"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23"/>
       <c r="B464" s="16"/>
       <c r="C464" s="16"/>
@@ -12731,7 +12739,7 @@
       <c r="J464" s="17"/>
       <c r="K464" s="43"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23"/>
       <c r="B465" s="16"/>
       <c r="C465" s="16"/>
@@ -12744,7 +12752,7 @@
       <c r="J465" s="17"/>
       <c r="K465" s="43"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23"/>
       <c r="B466" s="16"/>
       <c r="C466" s="16"/>
@@ -12757,7 +12765,7 @@
       <c r="J466" s="17"/>
       <c r="K466" s="43"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23"/>
       <c r="B467" s="16"/>
       <c r="C467" s="16"/>
@@ -12770,7 +12778,7 @@
       <c r="J467" s="17"/>
       <c r="K467" s="43"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23"/>
       <c r="B468" s="16"/>
       <c r="C468" s="16"/>
@@ -12783,7 +12791,7 @@
       <c r="J468" s="17"/>
       <c r="K468" s="43"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23"/>
       <c r="B469" s="16"/>
       <c r="C469" s="16"/>
@@ -12796,7 +12804,7 @@
       <c r="J469" s="17"/>
       <c r="K469" s="43"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23"/>
       <c r="B470" s="16"/>
       <c r="C470" s="16"/>
@@ -12809,7 +12817,7 @@
       <c r="J470" s="17"/>
       <c r="K470" s="43"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23"/>
       <c r="B471" s="16"/>
       <c r="C471" s="16"/>
@@ -12822,7 +12830,7 @@
       <c r="J471" s="17"/>
       <c r="K471" s="43"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23"/>
       <c r="B472" s="16"/>
       <c r="C472" s="16"/>
@@ -12835,7 +12843,7 @@
       <c r="J472" s="17"/>
       <c r="K472" s="43"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23"/>
       <c r="B473" s="16"/>
       <c r="C473" s="16"/>
@@ -12848,7 +12856,7 @@
       <c r="J473" s="17"/>
       <c r="K473" s="43"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23"/>
       <c r="B474" s="16"/>
       <c r="C474" s="16"/>
@@ -12861,7 +12869,7 @@
       <c r="J474" s="17"/>
       <c r="K474" s="43"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23"/>
       <c r="B475" s="16"/>
       <c r="C475" s="16"/>
@@ -12874,7 +12882,7 @@
       <c r="J475" s="17"/>
       <c r="K475" s="43"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23"/>
       <c r="B476" s="16"/>
       <c r="C476" s="16"/>
@@ -12887,7 +12895,7 @@
       <c r="J476" s="17"/>
       <c r="K476" s="43"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23"/>
       <c r="B477" s="16"/>
       <c r="C477" s="16"/>
@@ -12900,7 +12908,7 @@
       <c r="J477" s="17"/>
       <c r="K477" s="43"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23"/>
       <c r="B478" s="16"/>
       <c r="C478" s="16"/>
@@ -12913,7 +12921,7 @@
       <c r="J478" s="17"/>
       <c r="K478" s="43"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23"/>
       <c r="B479" s="16"/>
       <c r="C479" s="16"/>
@@ -12926,7 +12934,7 @@
       <c r="J479" s="17"/>
       <c r="K479" s="43"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23"/>
       <c r="B480" s="16"/>
       <c r="C480" s="16"/>
@@ -12939,7 +12947,7 @@
       <c r="J480" s="17"/>
       <c r="K480" s="43"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="23"/>
       <c r="B481" s="16"/>
       <c r="C481" s="16"/>
@@ -12952,7 +12960,7 @@
       <c r="J481" s="17"/>
       <c r="K481" s="43"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23"/>
       <c r="B482" s="16"/>
       <c r="C482" s="16"/>
@@ -12965,7 +12973,7 @@
       <c r="J482" s="17"/>
       <c r="K482" s="43"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23"/>
       <c r="B483" s="16"/>
       <c r="C483" s="16"/>
@@ -12978,7 +12986,7 @@
       <c r="J483" s="17"/>
       <c r="K483" s="43"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23"/>
       <c r="B484" s="16"/>
       <c r="C484" s="16"/>
@@ -12991,7 +12999,7 @@
       <c r="J484" s="17"/>
       <c r="K484" s="43"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23"/>
       <c r="B485" s="16"/>
       <c r="C485" s="16"/>
@@ -13004,7 +13012,7 @@
       <c r="J485" s="17"/>
       <c r="K485" s="43"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23"/>
       <c r="B486" s="16"/>
       <c r="C486" s="16"/>
@@ -13017,7 +13025,7 @@
       <c r="J486" s="17"/>
       <c r="K486" s="43"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23"/>
       <c r="B487" s="16"/>
       <c r="C487" s="16"/>
@@ -13030,7 +13038,7 @@
       <c r="J487" s="17"/>
       <c r="K487" s="43"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23"/>
       <c r="B488" s="16"/>
       <c r="C488" s="16"/>
@@ -13043,7 +13051,7 @@
       <c r="J488" s="17"/>
       <c r="K488" s="43"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23"/>
       <c r="B489" s="16"/>
       <c r="C489" s="16"/>
@@ -13056,7 +13064,7 @@
       <c r="J489" s="17"/>
       <c r="K489" s="43"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23"/>
       <c r="B490" s="16"/>
       <c r="C490" s="16"/>
@@ -13069,7 +13077,7 @@
       <c r="J490" s="17"/>
       <c r="K490" s="43"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="23"/>
       <c r="B491" s="16"/>
       <c r="C491" s="16"/>
@@ -13082,7 +13090,7 @@
       <c r="J491" s="17"/>
       <c r="K491" s="43"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="23"/>
       <c r="B492" s="16"/>
       <c r="C492" s="16"/>
@@ -13095,7 +13103,7 @@
       <c r="J492" s="17"/>
       <c r="K492" s="43"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="23"/>
       <c r="B493" s="16"/>
       <c r="C493" s="16"/>
@@ -13108,7 +13116,7 @@
       <c r="J493" s="17"/>
       <c r="K493" s="43"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="23"/>
       <c r="B494" s="16"/>
       <c r="C494" s="16"/>
@@ -13121,7 +13129,7 @@
       <c r="J494" s="17"/>
       <c r="K494" s="43"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="23"/>
       <c r="B495" s="16"/>
       <c r="C495" s="16"/>
@@ -13134,7 +13142,7 @@
       <c r="J495" s="17"/>
       <c r="K495" s="43"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="23"/>
       <c r="B496" s="16"/>
       <c r="C496" s="16"/>
@@ -13147,7 +13155,7 @@
       <c r="J496" s="17"/>
       <c r="K496" s="43"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="23"/>
       <c r="B497" s="16"/>
       <c r="C497" s="16"/>
@@ -13160,7 +13168,7 @@
       <c r="J497" s="17"/>
       <c r="K497" s="43"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="23"/>
       <c r="B498" s="16"/>
       <c r="C498" s="16"/>
@@ -13173,7 +13181,7 @@
       <c r="J498" s="17"/>
       <c r="K498" s="43"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="23"/>
       <c r="B499" s="16"/>
       <c r="C499" s="16"/>
@@ -13186,7 +13194,7 @@
       <c r="J499" s="17"/>
       <c r="K499" s="43"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="23"/>
       <c r="B500" s="16"/>
       <c r="C500" s="16"/>
@@ -13199,7 +13207,7 @@
       <c r="J500" s="17"/>
       <c r="K500" s="43"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="23"/>
       <c r="B501" s="16"/>
       <c r="C501" s="16"/>
@@ -13212,7 +13220,7 @@
       <c r="J501" s="17"/>
       <c r="K501" s="43"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23"/>
       <c r="B502" s="16"/>
       <c r="C502" s="16"/>
@@ -13225,7 +13233,7 @@
       <c r="J502" s="17"/>
       <c r="K502" s="43"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="23"/>
       <c r="B503" s="16"/>
       <c r="C503" s="16"/>
@@ -13238,7 +13246,7 @@
       <c r="J503" s="17"/>
       <c r="K503" s="43"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="23"/>
       <c r="B504" s="16"/>
       <c r="C504" s="16"/>
@@ -13251,7 +13259,7 @@
       <c r="J504" s="17"/>
       <c r="K504" s="43"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="23"/>
       <c r="B505" s="16"/>
       <c r="C505" s="16"/>
@@ -13264,7 +13272,7 @@
       <c r="J505" s="17"/>
       <c r="K505" s="43"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="23"/>
       <c r="B506" s="16"/>
       <c r="C506" s="16"/>
@@ -13277,7 +13285,7 @@
       <c r="J506" s="17"/>
       <c r="K506" s="43"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="23"/>
       <c r="B507" s="16"/>
       <c r="C507" s="16"/>
@@ -13290,7 +13298,7 @@
       <c r="J507" s="17"/>
       <c r="K507" s="43"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="23"/>
       <c r="B508" s="16"/>
       <c r="C508" s="16"/>
@@ -13303,7 +13311,7 @@
       <c r="J508" s="17"/>
       <c r="K508" s="43"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="23"/>
       <c r="B509" s="16"/>
       <c r="C509" s="16"/>
@@ -13316,7 +13324,7 @@
       <c r="J509" s="17"/>
       <c r="K509" s="43"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23"/>
       <c r="B510" s="16"/>
       <c r="C510" s="16"/>
@@ -13329,7 +13337,7 @@
       <c r="J510" s="17"/>
       <c r="K510" s="43"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23"/>
       <c r="B511" s="16"/>
       <c r="C511" s="16"/>
@@ -13342,7 +13350,7 @@
       <c r="J511" s="17"/>
       <c r="K511" s="43"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="23"/>
       <c r="B512" s="16"/>
       <c r="C512" s="16"/>
@@ -13355,7 +13363,7 @@
       <c r="J512" s="17"/>
       <c r="K512" s="43"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="23"/>
       <c r="B513" s="22"/>
       <c r="C513" s="22"/>
@@ -13368,7 +13376,7 @@
       <c r="J513" s="17"/>
       <c r="K513" s="43"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="23"/>
       <c r="B514" s="16"/>
       <c r="C514" s="16"/>
@@ -13381,7 +13389,7 @@
       <c r="J514" s="17"/>
       <c r="K514" s="43"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="23"/>
       <c r="B515" s="16"/>
       <c r="C515" s="16"/>
@@ -13394,7 +13402,7 @@
       <c r="J515" s="17"/>
       <c r="K515" s="43"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="23"/>
       <c r="B516" s="16"/>
       <c r="C516" s="16"/>
@@ -13407,7 +13415,7 @@
       <c r="J516" s="17"/>
       <c r="K516" s="43"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="23"/>
       <c r="B517" s="16"/>
       <c r="C517" s="16"/>
@@ -13420,7 +13428,7 @@
       <c r="J517" s="17"/>
       <c r="K517" s="43"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="23"/>
       <c r="B518" s="16"/>
       <c r="C518" s="16"/>
@@ -13433,7 +13441,7 @@
       <c r="J518" s="17"/>
       <c r="K518" s="43"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="23"/>
       <c r="B519" s="16"/>
       <c r="C519" s="16"/>
@@ -13446,7 +13454,7 @@
       <c r="J519" s="17"/>
       <c r="K519" s="43"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="23"/>
       <c r="B520" s="16"/>
       <c r="C520" s="16"/>
@@ -13459,7 +13467,7 @@
       <c r="J520" s="17"/>
       <c r="K520" s="43"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="23"/>
       <c r="B521" s="16"/>
       <c r="C521" s="16"/>
@@ -13472,7 +13480,7 @@
       <c r="J521" s="17"/>
       <c r="K521" s="43"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="23"/>
       <c r="B522" s="16"/>
       <c r="C522" s="16"/>
@@ -13485,7 +13493,7 @@
       <c r="J522" s="17"/>
       <c r="K522" s="43"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="23"/>
       <c r="B523" s="16"/>
       <c r="C523" s="16"/>
@@ -13498,7 +13506,7 @@
       <c r="J523" s="17"/>
       <c r="K523" s="43"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="23"/>
       <c r="B524" s="16"/>
       <c r="C524" s="16"/>
@@ -13511,7 +13519,7 @@
       <c r="J524" s="17"/>
       <c r="K524" s="43"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="23"/>
       <c r="B525" s="16"/>
       <c r="C525" s="16"/>
@@ -13524,7 +13532,7 @@
       <c r="J525" s="17"/>
       <c r="K525" s="43"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="23"/>
       <c r="B526" s="16"/>
       <c r="C526" s="16"/>
@@ -13537,7 +13545,7 @@
       <c r="J526" s="17"/>
       <c r="K526" s="43"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="23"/>
       <c r="B527" s="16"/>
       <c r="C527" s="16"/>
@@ -13550,7 +13558,7 @@
       <c r="J527" s="17"/>
       <c r="K527" s="43"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="23"/>
       <c r="B528" s="16"/>
       <c r="C528" s="16"/>
@@ -13563,7 +13571,7 @@
       <c r="J528" s="17"/>
       <c r="K528" s="43"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="23"/>
       <c r="B529" s="16"/>
       <c r="C529" s="16"/>
@@ -13576,7 +13584,7 @@
       <c r="J529" s="17"/>
       <c r="K529" s="43"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="23"/>
       <c r="B530" s="16"/>
       <c r="C530" s="16"/>
@@ -13589,7 +13597,7 @@
       <c r="J530" s="17"/>
       <c r="K530" s="43"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="23"/>
       <c r="B531" s="16"/>
       <c r="C531" s="16"/>
@@ -13602,7 +13610,7 @@
       <c r="J531" s="17"/>
       <c r="K531" s="43"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="23"/>
       <c r="B532" s="16"/>
       <c r="C532" s="16"/>
@@ -13615,7 +13623,7 @@
       <c r="J532" s="17"/>
       <c r="K532" s="43"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="23"/>
       <c r="B533" s="16"/>
       <c r="C533" s="16"/>
@@ -13628,7 +13636,7 @@
       <c r="J533" s="17"/>
       <c r="K533" s="43"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="23"/>
       <c r="B534" s="16"/>
       <c r="C534" s="16"/>
@@ -13641,7 +13649,7 @@
       <c r="J534" s="17"/>
       <c r="K534" s="43"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="23"/>
       <c r="B535" s="16"/>
       <c r="C535" s="16"/>
@@ -13654,7 +13662,7 @@
       <c r="J535" s="17"/>
       <c r="K535" s="43"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="23"/>
       <c r="B536" s="16"/>
       <c r="C536" s="16"/>
@@ -13667,7 +13675,7 @@
       <c r="J536" s="17"/>
       <c r="K536" s="43"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="23"/>
       <c r="B537" s="16"/>
       <c r="C537" s="16"/>
@@ -13680,7 +13688,7 @@
       <c r="J537" s="17"/>
       <c r="K537" s="43"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="23"/>
       <c r="B538" s="16"/>
       <c r="C538" s="16"/>
@@ -13693,7 +13701,7 @@
       <c r="J538" s="17"/>
       <c r="K538" s="43"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="23"/>
       <c r="B539" s="16"/>
       <c r="C539" s="16"/>
@@ -13706,7 +13714,7 @@
       <c r="J539" s="17"/>
       <c r="K539" s="43"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="23"/>
       <c r="B540" s="16"/>
       <c r="C540" s="16"/>
@@ -13719,7 +13727,7 @@
       <c r="J540" s="17"/>
       <c r="K540" s="43"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="23"/>
       <c r="B541" s="16"/>
       <c r="C541" s="16"/>
@@ -13732,7 +13740,7 @@
       <c r="J541" s="17"/>
       <c r="K541" s="43"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="23"/>
       <c r="B542" s="16"/>
       <c r="C542" s="16"/>
@@ -13745,7 +13753,7 @@
       <c r="J542" s="17"/>
       <c r="K542" s="43"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="23"/>
       <c r="B543" s="16"/>
       <c r="C543" s="16"/>
@@ -13758,7 +13766,7 @@
       <c r="J543" s="17"/>
       <c r="K543" s="43"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="23"/>
       <c r="B544" s="16"/>
       <c r="C544" s="16"/>
@@ -13771,7 +13779,7 @@
       <c r="J544" s="17"/>
       <c r="K544" s="43"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="23"/>
       <c r="B545" s="16"/>
       <c r="C545" s="16"/>
@@ -13784,7 +13792,7 @@
       <c r="J545" s="17"/>
       <c r="K545" s="43"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="23"/>
       <c r="B546" s="16"/>
       <c r="C546" s="16"/>
@@ -13797,7 +13805,7 @@
       <c r="J546" s="17"/>
       <c r="K546" s="43"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="23"/>
       <c r="B547" s="16"/>
       <c r="C547" s="16"/>
@@ -13810,7 +13818,7 @@
       <c r="J547" s="17"/>
       <c r="K547" s="43"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="23"/>
       <c r="B548" s="16"/>
       <c r="C548" s="16"/>
@@ -13823,7 +13831,7 @@
       <c r="J548" s="17"/>
       <c r="K548" s="43"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="23"/>
       <c r="B549" s="16"/>
       <c r="C549" s="16"/>
@@ -13836,7 +13844,7 @@
       <c r="J549" s="17"/>
       <c r="K549" s="43"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="23"/>
       <c r="B550" s="16"/>
       <c r="C550" s="16"/>
@@ -13849,7 +13857,7 @@
       <c r="J550" s="17"/>
       <c r="K550" s="43"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="23"/>
       <c r="B551" s="16"/>
       <c r="C551" s="16"/>
@@ -13862,7 +13870,7 @@
       <c r="J551" s="17"/>
       <c r="K551" s="43"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="23"/>
       <c r="B552" s="16"/>
       <c r="C552" s="16"/>
@@ -13875,7 +13883,7 @@
       <c r="J552" s="17"/>
       <c r="K552" s="43"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="23"/>
       <c r="B553" s="16"/>
       <c r="C553" s="16"/>
@@ -13888,7 +13896,7 @@
       <c r="J553" s="17"/>
       <c r="K553" s="43"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="23"/>
       <c r="B554" s="16"/>
       <c r="C554" s="16"/>
@@ -13901,7 +13909,7 @@
       <c r="J554" s="17"/>
       <c r="K554" s="43"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="23"/>
       <c r="B555" s="16"/>
       <c r="C555" s="16"/>
@@ -13914,7 +13922,7 @@
       <c r="J555" s="17"/>
       <c r="K555" s="43"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="23"/>
       <c r="B556" s="16"/>
       <c r="C556" s="16"/>
@@ -13927,7 +13935,7 @@
       <c r="J556" s="17"/>
       <c r="K556" s="43"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="23"/>
       <c r="B557" s="16"/>
       <c r="C557" s="16"/>
@@ -13940,7 +13948,7 @@
       <c r="J557" s="17"/>
       <c r="K557" s="43"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="23"/>
       <c r="B558" s="16"/>
       <c r="C558" s="16"/>
@@ -13953,7 +13961,7 @@
       <c r="J558" s="17"/>
       <c r="K558" s="43"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="23"/>
       <c r="B559" s="16"/>
       <c r="C559" s="16"/>
@@ -13966,7 +13974,7 @@
       <c r="J559" s="17"/>
       <c r="K559" s="43"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="23"/>
       <c r="B560" s="16"/>
       <c r="C560" s="16"/>
@@ -13979,7 +13987,7 @@
       <c r="J560" s="17"/>
       <c r="K560" s="43"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="23"/>
       <c r="B561" s="16"/>
       <c r="C561" s="16"/>
@@ -13992,7 +14000,7 @@
       <c r="J561" s="17"/>
       <c r="K561" s="43"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="23"/>
       <c r="B562" s="16"/>
       <c r="C562" s="16"/>
@@ -14005,7 +14013,7 @@
       <c r="J562" s="17"/>
       <c r="K562" s="43"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="23"/>
       <c r="B563" s="16"/>
       <c r="C563" s="16"/>
@@ -14018,7 +14026,7 @@
       <c r="J563" s="17"/>
       <c r="K563" s="43"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="23"/>
       <c r="B564" s="16"/>
       <c r="C564" s="16"/>
@@ -14031,7 +14039,7 @@
       <c r="J564" s="17"/>
       <c r="K564" s="43"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="23"/>
       <c r="B565" s="16"/>
       <c r="C565" s="16"/>
@@ -14044,7 +14052,7 @@
       <c r="J565" s="17"/>
       <c r="K565" s="43"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="23"/>
       <c r="B566" s="16"/>
       <c r="C566" s="16"/>
@@ -14057,7 +14065,7 @@
       <c r="J566" s="17"/>
       <c r="K566" s="43"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="23"/>
       <c r="B567" s="16"/>
       <c r="C567" s="16"/>
@@ -14070,7 +14078,7 @@
       <c r="J567" s="17"/>
       <c r="K567" s="43"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="23"/>
       <c r="B568" s="16"/>
       <c r="C568" s="16"/>
@@ -14083,7 +14091,7 @@
       <c r="J568" s="17"/>
       <c r="K568" s="43"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="23"/>
       <c r="B569" s="16"/>
       <c r="C569" s="16"/>
@@ -14096,7 +14104,7 @@
       <c r="J569" s="17"/>
       <c r="K569" s="43"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="23"/>
       <c r="B570" s="16"/>
       <c r="C570" s="16"/>
@@ -14109,7 +14117,7 @@
       <c r="J570" s="17"/>
       <c r="K570" s="43"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="23"/>
       <c r="B571" s="16"/>
       <c r="C571" s="16"/>
@@ -14122,7 +14130,7 @@
       <c r="J571" s="17"/>
       <c r="K571" s="43"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="23"/>
       <c r="B572" s="16"/>
       <c r="C572" s="16"/>
@@ -14135,7 +14143,7 @@
       <c r="J572" s="17"/>
       <c r="K572" s="43"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="23"/>
       <c r="B573" s="16"/>
       <c r="C573" s="16"/>
@@ -14148,7 +14156,7 @@
       <c r="J573" s="17"/>
       <c r="K573" s="43"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="23"/>
       <c r="B574" s="16"/>
       <c r="C574" s="16"/>
@@ -14161,7 +14169,7 @@
       <c r="J574" s="17"/>
       <c r="K574" s="43"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="23"/>
       <c r="B575" s="16"/>
       <c r="C575" s="16"/>
@@ -14174,7 +14182,7 @@
       <c r="J575" s="17"/>
       <c r="K575" s="43"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="23"/>
       <c r="B576" s="16"/>
       <c r="C576" s="16"/>
@@ -14187,7 +14195,7 @@
       <c r="J576" s="17"/>
       <c r="K576" s="43"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="23"/>
       <c r="B577" s="16"/>
       <c r="C577" s="16"/>
@@ -14200,7 +14208,7 @@
       <c r="J577" s="17"/>
       <c r="K577" s="43"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="23"/>
       <c r="B578" s="16"/>
       <c r="C578" s="16"/>
@@ -14213,7 +14221,7 @@
       <c r="J578" s="17"/>
       <c r="K578" s="43"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="23"/>
       <c r="B579" s="16"/>
       <c r="C579" s="16"/>
@@ -14226,7 +14234,7 @@
       <c r="J579" s="17"/>
       <c r="K579" s="43"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="23"/>
       <c r="B580" s="16"/>
       <c r="C580" s="16"/>
@@ -14239,7 +14247,7 @@
       <c r="J580" s="17"/>
       <c r="K580" s="43"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="23"/>
       <c r="B581" s="16"/>
       <c r="C581" s="16"/>
@@ -14252,7 +14260,7 @@
       <c r="J581" s="17"/>
       <c r="K581" s="43"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="23"/>
       <c r="B582" s="16"/>
       <c r="C582" s="16"/>
@@ -14265,7 +14273,7 @@
       <c r="J582" s="17"/>
       <c r="K582" s="43"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="23"/>
       <c r="B583" s="16"/>
       <c r="C583" s="16"/>
@@ -14278,7 +14286,7 @@
       <c r="J583" s="17"/>
       <c r="K583" s="43"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="23"/>
       <c r="B584" s="16"/>
       <c r="C584" s="16"/>
@@ -14291,7 +14299,7 @@
       <c r="J584" s="17"/>
       <c r="K584" s="43"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="23"/>
       <c r="B585" s="16"/>
       <c r="C585" s="16"/>
@@ -14304,7 +14312,7 @@
       <c r="J585" s="17"/>
       <c r="K585" s="43"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="23"/>
       <c r="B586" s="16"/>
       <c r="C586" s="16"/>
@@ -14317,7 +14325,7 @@
       <c r="J586" s="17"/>
       <c r="K586" s="43"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="23"/>
       <c r="B587" s="16"/>
       <c r="C587" s="16"/>
@@ -14330,7 +14338,7 @@
       <c r="J587" s="17"/>
       <c r="K587" s="43"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="23"/>
       <c r="B588" s="16"/>
       <c r="C588" s="16"/>
@@ -14343,7 +14351,7 @@
       <c r="J588" s="17"/>
       <c r="K588" s="43"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="23"/>
       <c r="B589" s="16"/>
       <c r="C589" s="16"/>
@@ -14356,7 +14364,7 @@
       <c r="J589" s="17"/>
       <c r="K589" s="43"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="23"/>
       <c r="B590" s="16"/>
       <c r="C590" s="16"/>
@@ -14369,7 +14377,7 @@
       <c r="J590" s="17"/>
       <c r="K590" s="43"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="23"/>
       <c r="B591" s="16"/>
       <c r="C591" s="16"/>
@@ -14382,7 +14390,7 @@
       <c r="J591" s="17"/>
       <c r="K591" s="43"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="23"/>
       <c r="B592" s="16"/>
       <c r="C592" s="16"/>
@@ -14395,7 +14403,7 @@
       <c r="J592" s="17"/>
       <c r="K592" s="43"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="23"/>
       <c r="B593" s="16"/>
       <c r="C593" s="16"/>
@@ -14408,7 +14416,7 @@
       <c r="J593" s="17"/>
       <c r="K593" s="43"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="23"/>
       <c r="B594" s="16"/>
       <c r="C594" s="16"/>
@@ -14421,7 +14429,7 @@
       <c r="J594" s="17"/>
       <c r="K594" s="43"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="23"/>
       <c r="B595" s="16"/>
       <c r="C595" s="16"/>
@@ -14434,7 +14442,7 @@
       <c r="J595" s="17"/>
       <c r="K595" s="43"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="23"/>
       <c r="B596" s="16"/>
       <c r="C596" s="16"/>
@@ -14447,7 +14455,7 @@
       <c r="J596" s="17"/>
       <c r="K596" s="43"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="23"/>
       <c r="B597" s="16"/>
       <c r="C597" s="16"/>
@@ -14460,7 +14468,7 @@
       <c r="J597" s="17"/>
       <c r="K597" s="43"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="23"/>
       <c r="B598" s="16"/>
       <c r="C598" s="16"/>
@@ -14473,7 +14481,7 @@
       <c r="J598" s="17"/>
       <c r="K598" s="43"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="23"/>
       <c r="B599" s="16"/>
       <c r="C599" s="16"/>
@@ -14486,7 +14494,7 @@
       <c r="J599" s="17"/>
       <c r="K599" s="43"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="23"/>
       <c r="B600" s="16"/>
       <c r="C600" s="16"/>
@@ -14499,7 +14507,7 @@
       <c r="J600" s="17"/>
       <c r="K600" s="43"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="23"/>
       <c r="B601" s="16"/>
       <c r="C601" s="16"/>
@@ -14512,7 +14520,7 @@
       <c r="J601" s="17"/>
       <c r="K601" s="43"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="23"/>
       <c r="B602" s="16"/>
       <c r="C602" s="16"/>
@@ -14525,7 +14533,7 @@
       <c r="J602" s="17"/>
       <c r="K602" s="43"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="23"/>
       <c r="B603" s="16"/>
       <c r="C603" s="16"/>
@@ -14538,7 +14546,7 @@
       <c r="J603" s="17"/>
       <c r="K603" s="43"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="23"/>
       <c r="B604" s="16"/>
       <c r="C604" s="16"/>
@@ -14551,7 +14559,7 @@
       <c r="J604" s="17"/>
       <c r="K604" s="43"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="23"/>
       <c r="B605" s="16"/>
       <c r="C605" s="16"/>
@@ -14564,7 +14572,7 @@
       <c r="J605" s="17"/>
       <c r="K605" s="43"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="23"/>
       <c r="B606" s="16"/>
       <c r="C606" s="16"/>
@@ -14577,7 +14585,7 @@
       <c r="J606" s="17"/>
       <c r="K606" s="43"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="23"/>
       <c r="B607" s="16"/>
       <c r="C607" s="16"/>
@@ -14590,7 +14598,7 @@
       <c r="J607" s="17"/>
       <c r="K607" s="43"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="23"/>
       <c r="B608" s="16"/>
       <c r="C608" s="16"/>
@@ -14603,7 +14611,7 @@
       <c r="J608" s="17"/>
       <c r="K608" s="43"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="23"/>
       <c r="B609" s="16"/>
       <c r="C609" s="16"/>
@@ -14616,7 +14624,7 @@
       <c r="J609" s="17"/>
       <c r="K609" s="43"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="23"/>
       <c r="B610" s="16"/>
       <c r="C610" s="16"/>
@@ -14629,7 +14637,7 @@
       <c r="J610" s="17"/>
       <c r="K610" s="43"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="23"/>
       <c r="B611" s="16"/>
       <c r="C611" s="16"/>
@@ -14642,7 +14650,7 @@
       <c r="J611" s="17"/>
       <c r="K611" s="43"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="23"/>
       <c r="B612" s="16"/>
       <c r="C612" s="16"/>
@@ -14655,7 +14663,7 @@
       <c r="J612" s="17"/>
       <c r="K612" s="43"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="23"/>
       <c r="B613" s="16"/>
       <c r="C613" s="16"/>
@@ -14668,7 +14676,7 @@
       <c r="J613" s="17"/>
       <c r="K613" s="43"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="23"/>
       <c r="B614" s="16"/>
       <c r="C614" s="16"/>
@@ -14681,7 +14689,7 @@
       <c r="J614" s="17"/>
       <c r="K614" s="43"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="23"/>
       <c r="B615" s="16"/>
       <c r="C615" s="16"/>
@@ -14694,7 +14702,7 @@
       <c r="J615" s="17"/>
       <c r="K615" s="43"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="23"/>
       <c r="B616" s="16"/>
       <c r="C616" s="16"/>
@@ -14707,7 +14715,7 @@
       <c r="J616" s="17"/>
       <c r="K616" s="43"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="23"/>
       <c r="B617" s="16"/>
       <c r="C617" s="16"/>
@@ -14720,7 +14728,7 @@
       <c r="J617" s="17"/>
       <c r="K617" s="43"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="23"/>
       <c r="B618" s="16"/>
       <c r="C618" s="16"/>
@@ -14733,7 +14741,7 @@
       <c r="J618" s="17"/>
       <c r="K618" s="43"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="23"/>
       <c r="B619" s="16"/>
       <c r="C619" s="16"/>
@@ -14746,7 +14754,7 @@
       <c r="J619" s="17"/>
       <c r="K619" s="43"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="23"/>
       <c r="B620" s="16"/>
       <c r="C620" s="16"/>
@@ -14759,7 +14767,7 @@
       <c r="J620" s="17"/>
       <c r="K620" s="43"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="23"/>
       <c r="B621" s="16"/>
       <c r="C621" s="16"/>
@@ -14772,7 +14780,7 @@
       <c r="J621" s="17"/>
       <c r="K621" s="43"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="23"/>
       <c r="B622" s="16"/>
       <c r="C622" s="16"/>
@@ -14785,7 +14793,7 @@
       <c r="J622" s="17"/>
       <c r="K622" s="43"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="23"/>
       <c r="B623" s="16"/>
       <c r="C623" s="16"/>
@@ -14798,7 +14806,7 @@
       <c r="J623" s="17"/>
       <c r="K623" s="43"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="23"/>
       <c r="B624" s="16"/>
       <c r="C624" s="16"/>
@@ -14811,7 +14819,7 @@
       <c r="J624" s="17"/>
       <c r="K624" s="43"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="23"/>
       <c r="B625" s="16"/>
       <c r="C625" s="16"/>
@@ -14824,7 +14832,7 @@
       <c r="J625" s="17"/>
       <c r="K625" s="43"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="23"/>
       <c r="B626" s="16"/>
       <c r="C626" s="16"/>
@@ -14837,7 +14845,7 @@
       <c r="J626" s="17"/>
       <c r="K626" s="43"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="23"/>
       <c r="B627" s="16"/>
       <c r="C627" s="16"/>
@@ -14850,7 +14858,7 @@
       <c r="J627" s="17"/>
       <c r="K627" s="43"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="23"/>
       <c r="B628" s="16"/>
       <c r="C628" s="16"/>
@@ -14863,7 +14871,7 @@
       <c r="J628" s="17"/>
       <c r="K628" s="43"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="23"/>
       <c r="B629" s="16"/>
       <c r="C629" s="16"/>
@@ -14876,7 +14884,7 @@
       <c r="J629" s="17"/>
       <c r="K629" s="43"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="23"/>
       <c r="B630" s="16"/>
       <c r="C630" s="16"/>
@@ -14889,7 +14897,7 @@
       <c r="J630" s="17"/>
       <c r="K630" s="43"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="23"/>
       <c r="B631" s="16"/>
       <c r="C631" s="16"/>
@@ -14902,7 +14910,7 @@
       <c r="J631" s="17"/>
       <c r="K631" s="43"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="23"/>
       <c r="B632" s="16"/>
       <c r="C632" s="16"/>
@@ -14915,7 +14923,7 @@
       <c r="J632" s="17"/>
       <c r="K632" s="43"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="23"/>
       <c r="B633" s="16"/>
       <c r="C633" s="16"/>
@@ -14928,7 +14936,7 @@
       <c r="J633" s="17"/>
       <c r="K633" s="43"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="23"/>
       <c r="B634" s="16"/>
       <c r="C634" s="16"/>
@@ -14941,7 +14949,7 @@
       <c r="J634" s="17"/>
       <c r="K634" s="43"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="23"/>
       <c r="B635" s="16"/>
       <c r="C635" s="16"/>
@@ -14954,7 +14962,7 @@
       <c r="J635" s="17"/>
       <c r="K635" s="43"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="23"/>
       <c r="B636" s="16"/>
       <c r="C636" s="16"/>
@@ -14967,7 +14975,7 @@
       <c r="J636" s="17"/>
       <c r="K636" s="43"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="23"/>
       <c r="B637" s="16"/>
       <c r="C637" s="16"/>
@@ -14980,7 +14988,7 @@
       <c r="J637" s="17"/>
       <c r="K637" s="43"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="23"/>
       <c r="B638" s="16"/>
       <c r="C638" s="16"/>
@@ -14993,7 +15001,7 @@
       <c r="J638" s="17"/>
       <c r="K638" s="43"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="23"/>
       <c r="B639" s="16"/>
       <c r="C639" s="16"/>
@@ -15006,7 +15014,7 @@
       <c r="J639" s="17"/>
       <c r="K639" s="43"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="23"/>
       <c r="B640" s="16"/>
       <c r="C640" s="16"/>
@@ -15019,7 +15027,7 @@
       <c r="J640" s="17"/>
       <c r="K640" s="43"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="23"/>
       <c r="B641" s="16"/>
       <c r="C641" s="16"/>
@@ -15032,7 +15040,7 @@
       <c r="J641" s="17"/>
       <c r="K641" s="43"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="23"/>
       <c r="B642" s="16"/>
       <c r="C642" s="16"/>
@@ -15045,7 +15053,7 @@
       <c r="J642" s="17"/>
       <c r="K642" s="43"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="23"/>
       <c r="B643" s="16"/>
       <c r="C643" s="16"/>
@@ -15058,7 +15066,7 @@
       <c r="J643" s="17"/>
       <c r="K643" s="43"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="23"/>
       <c r="B644" s="16"/>
       <c r="C644" s="16"/>
@@ -15071,7 +15079,7 @@
       <c r="J644" s="17"/>
       <c r="K644" s="43"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="23"/>
       <c r="B645" s="16"/>
       <c r="C645" s="16"/>
@@ -15084,7 +15092,7 @@
       <c r="J645" s="17"/>
       <c r="K645" s="43"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="23"/>
       <c r="B646" s="16"/>
       <c r="C646" s="16"/>
@@ -15097,7 +15105,7 @@
       <c r="J646" s="17"/>
       <c r="K646" s="43"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="23"/>
       <c r="B647" s="16"/>
       <c r="C647" s="16"/>
@@ -15110,7 +15118,7 @@
       <c r="J647" s="17"/>
       <c r="K647" s="43"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="23"/>
       <c r="B648" s="16"/>
       <c r="C648" s="16"/>
@@ -15123,7 +15131,7 @@
       <c r="J648" s="17"/>
       <c r="K648" s="43"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="23"/>
       <c r="B649" s="16"/>
       <c r="C649" s="16"/>
@@ -15136,7 +15144,7 @@
       <c r="J649" s="17"/>
       <c r="K649" s="43"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="23"/>
       <c r="B650" s="16"/>
       <c r="C650" s="16"/>
@@ -15149,7 +15157,7 @@
       <c r="J650" s="17"/>
       <c r="K650" s="43"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="23"/>
       <c r="B651" s="16"/>
       <c r="C651" s="16"/>
@@ -15162,7 +15170,7 @@
       <c r="J651" s="17"/>
       <c r="K651" s="43"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="23"/>
       <c r="B652" s="16"/>
       <c r="C652" s="16"/>
@@ -15175,7 +15183,7 @@
       <c r="J652" s="17"/>
       <c r="K652" s="43"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="23"/>
       <c r="B653" s="16"/>
       <c r="C653" s="16"/>
@@ -15188,7 +15196,7 @@
       <c r="J653" s="17"/>
       <c r="K653" s="43"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="23"/>
       <c r="B654" s="16"/>
       <c r="C654" s="16"/>
@@ -15201,7 +15209,7 @@
       <c r="J654" s="17"/>
       <c r="K654" s="43"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="23"/>
       <c r="B655" s="16"/>
       <c r="C655" s="16"/>
@@ -15214,7 +15222,7 @@
       <c r="J655" s="17"/>
       <c r="K655" s="43"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="23"/>
       <c r="B656" s="16"/>
       <c r="C656" s="16"/>
@@ -15227,7 +15235,7 @@
       <c r="J656" s="17"/>
       <c r="K656" s="43"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="23"/>
       <c r="B657" s="16"/>
       <c r="C657" s="16"/>
@@ -15240,7 +15248,7 @@
       <c r="J657" s="17"/>
       <c r="K657" s="43"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="23"/>
       <c r="B658" s="16"/>
       <c r="C658" s="16"/>
@@ -15253,7 +15261,7 @@
       <c r="J658" s="17"/>
       <c r="K658" s="43"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="23"/>
       <c r="B659" s="16"/>
       <c r="C659" s="16"/>
@@ -15266,7 +15274,7 @@
       <c r="J659" s="17"/>
       <c r="K659" s="43"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="23"/>
       <c r="B660" s="16"/>
       <c r="C660" s="16"/>
@@ -15279,7 +15287,7 @@
       <c r="J660" s="17"/>
       <c r="K660" s="43"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="23"/>
       <c r="B661" s="16"/>
       <c r="C661" s="16"/>
@@ -15292,7 +15300,7 @@
       <c r="J661" s="17"/>
       <c r="K661" s="43"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="23"/>
       <c r="B662" s="16"/>
       <c r="C662" s="16"/>
@@ -15305,7 +15313,7 @@
       <c r="J662" s="17"/>
       <c r="K662" s="43"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="23"/>
       <c r="B663" s="16"/>
       <c r="C663" s="16"/>
@@ -15318,7 +15326,7 @@
       <c r="J663" s="17"/>
       <c r="K663" s="43"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="23"/>
       <c r="B664" s="16"/>
       <c r="C664" s="16"/>
@@ -15331,7 +15339,7 @@
       <c r="J664" s="17"/>
       <c r="K664" s="43"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="23"/>
       <c r="B665" s="16"/>
       <c r="C665" s="16"/>
@@ -15344,7 +15352,7 @@
       <c r="J665" s="17"/>
       <c r="K665" s="43"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="23"/>
       <c r="B666" s="16"/>
       <c r="C666" s="16"/>
@@ -15357,7 +15365,7 @@
       <c r="J666" s="17"/>
       <c r="K666" s="43"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="23"/>
       <c r="B667" s="16"/>
       <c r="C667" s="16"/>
@@ -15370,7 +15378,7 @@
       <c r="J667" s="17"/>
       <c r="K667" s="43"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="23"/>
       <c r="B668" s="16"/>
       <c r="C668" s="16"/>
@@ -15383,7 +15391,7 @@
       <c r="J668" s="17"/>
       <c r="K668" s="43"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="23"/>
       <c r="B669" s="16"/>
       <c r="C669" s="16"/>
@@ -15396,7 +15404,7 @@
       <c r="J669" s="17"/>
       <c r="K669" s="43"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="23"/>
       <c r="B670" s="16"/>
       <c r="C670" s="16"/>
@@ -15409,7 +15417,7 @@
       <c r="J670" s="17"/>
       <c r="K670" s="43"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="23"/>
       <c r="B671" s="16"/>
       <c r="C671" s="16"/>
@@ -15422,7 +15430,7 @@
       <c r="J671" s="17"/>
       <c r="K671" s="43"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="23"/>
       <c r="B672" s="16"/>
       <c r="C672" s="16"/>
@@ -15435,7 +15443,7 @@
       <c r="J672" s="17"/>
       <c r="K672" s="43"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="23"/>
       <c r="B673" s="16"/>
       <c r="C673" s="16"/>
@@ -15448,7 +15456,7 @@
       <c r="J673" s="17"/>
       <c r="K673" s="43"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="23"/>
       <c r="B674" s="16"/>
       <c r="C674" s="16"/>
@@ -15461,7 +15469,7 @@
       <c r="J674" s="17"/>
       <c r="K674" s="43"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="23"/>
       <c r="B675" s="16"/>
       <c r="C675" s="16"/>
@@ -15474,7 +15482,7 @@
       <c r="J675" s="17"/>
       <c r="K675" s="43"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="23"/>
       <c r="B676" s="16"/>
       <c r="C676" s="16"/>
@@ -15487,7 +15495,7 @@
       <c r="J676" s="17"/>
       <c r="K676" s="43"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="23"/>
       <c r="B677" s="16"/>
       <c r="C677" s="16"/>
@@ -15500,7 +15508,7 @@
       <c r="J677" s="17"/>
       <c r="K677" s="43"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="23"/>
       <c r="B678" s="16"/>
       <c r="C678" s="16"/>
@@ -15513,7 +15521,7 @@
       <c r="J678" s="17"/>
       <c r="K678" s="43"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="23"/>
       <c r="B679" s="16"/>
       <c r="C679" s="16"/>
@@ -15526,7 +15534,7 @@
       <c r="J679" s="17"/>
       <c r="K679" s="43"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="23"/>
       <c r="B680" s="16"/>
       <c r="C680" s="16"/>
@@ -15539,7 +15547,7 @@
       <c r="J680" s="17"/>
       <c r="K680" s="43"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="23"/>
       <c r="B681" s="16"/>
       <c r="C681" s="16"/>
@@ -15552,7 +15560,7 @@
       <c r="J681" s="17"/>
       <c r="K681" s="43"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="23"/>
       <c r="B682" s="16"/>
       <c r="C682" s="16"/>
@@ -15565,7 +15573,7 @@
       <c r="J682" s="17"/>
       <c r="K682" s="43"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="23"/>
       <c r="B683" s="16"/>
       <c r="C683" s="16"/>
@@ -15578,7 +15586,7 @@
       <c r="J683" s="17"/>
       <c r="K683" s="43"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="23"/>
       <c r="B684" s="16"/>
       <c r="C684" s="16"/>
@@ -15591,7 +15599,7 @@
       <c r="J684" s="17"/>
       <c r="K684" s="43"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="23"/>
       <c r="B685" s="16"/>
       <c r="C685" s="16"/>
@@ -15604,7 +15612,7 @@
       <c r="J685" s="17"/>
       <c r="K685" s="43"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="23"/>
       <c r="B686" s="16"/>
       <c r="C686" s="16"/>
@@ -15617,7 +15625,7 @@
       <c r="J686" s="17"/>
       <c r="K686" s="43"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="23"/>
       <c r="B687" s="16"/>
       <c r="C687" s="16"/>
@@ -15630,7 +15638,7 @@
       <c r="J687" s="17"/>
       <c r="K687" s="43"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="23"/>
       <c r="B688" s="16"/>
       <c r="C688" s="16"/>
@@ -15643,7 +15651,7 @@
       <c r="J688" s="17"/>
       <c r="K688" s="43"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="23"/>
       <c r="B689" s="16"/>
       <c r="C689" s="16"/>
@@ -15656,7 +15664,7 @@
       <c r="J689" s="17"/>
       <c r="K689" s="43"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="23"/>
       <c r="B690" s="16"/>
       <c r="C690" s="16"/>
@@ -15669,7 +15677,7 @@
       <c r="J690" s="17"/>
       <c r="K690" s="43"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="23"/>
       <c r="B691" s="16"/>
       <c r="C691" s="16"/>
@@ -15682,7 +15690,7 @@
       <c r="J691" s="17"/>
       <c r="K691" s="43"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="23"/>
       <c r="B692" s="16"/>
       <c r="C692" s="16"/>
@@ -15695,7 +15703,7 @@
       <c r="J692" s="17"/>
       <c r="K692" s="43"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="23"/>
       <c r="B693" s="16"/>
       <c r="C693" s="16"/>
@@ -15708,7 +15716,7 @@
       <c r="J693" s="17"/>
       <c r="K693" s="43"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="23"/>
       <c r="B694" s="16"/>
       <c r="C694" s="16"/>
@@ -15721,7 +15729,7 @@
       <c r="J694" s="17"/>
       <c r="K694" s="43"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="23"/>
       <c r="B695" s="16"/>
       <c r="C695" s="16"/>
@@ -15734,7 +15742,7 @@
       <c r="J695" s="17"/>
       <c r="K695" s="43"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="23"/>
       <c r="B696" s="16"/>
       <c r="C696" s="16"/>
@@ -15747,7 +15755,7 @@
       <c r="J696" s="17"/>
       <c r="K696" s="43"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="23"/>
       <c r="B697" s="16"/>
       <c r="C697" s="16"/>
@@ -15760,7 +15768,7 @@
       <c r="J697" s="17"/>
       <c r="K697" s="43"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="23"/>
       <c r="B698" s="16"/>
       <c r="C698" s="16"/>
@@ -15773,7 +15781,7 @@
       <c r="J698" s="17"/>
       <c r="K698" s="43"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="23"/>
       <c r="B699" s="16"/>
       <c r="C699" s="16"/>
@@ -15786,7 +15794,7 @@
       <c r="J699" s="17"/>
       <c r="K699" s="43"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="23"/>
       <c r="B700" s="16"/>
       <c r="C700" s="16"/>
@@ -15799,7 +15807,7 @@
       <c r="J700" s="17"/>
       <c r="K700" s="43"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="23"/>
       <c r="B701" s="16"/>
       <c r="C701" s="16"/>
@@ -15812,7 +15820,7 @@
       <c r="J701" s="17"/>
       <c r="K701" s="43"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="23"/>
       <c r="B702" s="16"/>
       <c r="C702" s="16"/>
@@ -15825,7 +15833,7 @@
       <c r="J702" s="17"/>
       <c r="K702" s="43"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="23"/>
       <c r="B703" s="16"/>
       <c r="C703" s="16"/>
@@ -15838,7 +15846,7 @@
       <c r="J703" s="17"/>
       <c r="K703" s="43"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="23"/>
       <c r="B704" s="16"/>
       <c r="C704" s="16"/>
@@ -15851,7 +15859,7 @@
       <c r="J704" s="17"/>
       <c r="K704" s="43"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="23"/>
       <c r="B705" s="16"/>
       <c r="C705" s="16"/>
@@ -15864,7 +15872,7 @@
       <c r="J705" s="17"/>
       <c r="K705" s="43"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="23"/>
       <c r="B706" s="16"/>
       <c r="C706" s="16"/>
@@ -15877,7 +15885,7 @@
       <c r="J706" s="17"/>
       <c r="K706" s="43"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="23"/>
       <c r="B707" s="16"/>
       <c r="C707" s="16"/>
@@ -15890,7 +15898,7 @@
       <c r="J707" s="17"/>
       <c r="K707" s="43"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="23"/>
       <c r="B708" s="16"/>
       <c r="C708" s="16"/>
@@ -15903,7 +15911,7 @@
       <c r="J708" s="17"/>
       <c r="K708" s="43"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="23"/>
       <c r="B709" s="16"/>
       <c r="C709" s="16"/>
@@ -15916,7 +15924,7 @@
       <c r="J709" s="17"/>
       <c r="K709" s="43"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="23"/>
       <c r="B710" s="16"/>
       <c r="C710" s="16"/>
@@ -15929,7 +15937,7 @@
       <c r="J710" s="17"/>
       <c r="K710" s="43"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="23"/>
       <c r="B711" s="16"/>
       <c r="C711" s="16"/>
@@ -15942,7 +15950,7 @@
       <c r="J711" s="17"/>
       <c r="K711" s="43"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="23"/>
       <c r="B712" s="16"/>
       <c r="C712" s="16"/>
@@ -15955,7 +15963,7 @@
       <c r="J712" s="17"/>
       <c r="K712" s="43"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="23"/>
       <c r="B713" s="16"/>
       <c r="C713" s="16"/>
@@ -15968,7 +15976,7 @@
       <c r="J713" s="17"/>
       <c r="K713" s="43"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="23"/>
       <c r="B714" s="16"/>
       <c r="C714" s="16"/>
@@ -15981,7 +15989,7 @@
       <c r="J714" s="17"/>
       <c r="K714" s="43"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="23"/>
       <c r="B715" s="16"/>
       <c r="C715" s="16"/>
@@ -15994,7 +16002,7 @@
       <c r="J715" s="17"/>
       <c r="K715" s="43"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="23"/>
       <c r="B716" s="16"/>
       <c r="C716" s="16"/>
@@ -16007,7 +16015,7 @@
       <c r="J716" s="17"/>
       <c r="K716" s="43"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="23"/>
       <c r="B717" s="16"/>
       <c r="C717" s="16"/>
@@ -16020,7 +16028,7 @@
       <c r="J717" s="17"/>
       <c r="K717" s="43"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="23"/>
       <c r="B718" s="16"/>
       <c r="C718" s="16"/>
@@ -16033,7 +16041,7 @@
       <c r="J718" s="17"/>
       <c r="K718" s="43"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="23"/>
       <c r="B719" s="16"/>
       <c r="C719" s="16"/>
@@ -16046,7 +16054,7 @@
       <c r="J719" s="17"/>
       <c r="K719" s="43"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="23"/>
       <c r="B720" s="16"/>
       <c r="C720" s="16"/>
@@ -16059,7 +16067,7 @@
       <c r="J720" s="17"/>
       <c r="K720" s="43"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="23"/>
       <c r="B721" s="16"/>
       <c r="C721" s="16"/>
@@ -16072,7 +16080,7 @@
       <c r="J721" s="17"/>
       <c r="K721" s="43"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="23"/>
       <c r="B722" s="16"/>
       <c r="C722" s="16"/>
@@ -16085,7 +16093,7 @@
       <c r="J722" s="17"/>
       <c r="K722" s="43"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="23"/>
       <c r="B723" s="16"/>
       <c r="C723" s="16"/>
@@ -16098,7 +16106,7 @@
       <c r="J723" s="17"/>
       <c r="K723" s="43"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="23"/>
       <c r="B724" s="16"/>
       <c r="C724" s="16"/>
@@ -16111,7 +16119,7 @@
       <c r="J724" s="17"/>
       <c r="K724" s="43"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="23"/>
       <c r="B725" s="16"/>
       <c r="C725" s="16"/>
@@ -16124,7 +16132,7 @@
       <c r="J725" s="17"/>
       <c r="K725" s="43"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="23"/>
       <c r="B726" s="16"/>
       <c r="C726" s="16"/>
@@ -16137,7 +16145,7 @@
       <c r="J726" s="17"/>
       <c r="K726" s="43"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="23"/>
       <c r="B727" s="16"/>
       <c r="C727" s="16"/>
@@ -16150,7 +16158,7 @@
       <c r="J727" s="17"/>
       <c r="K727" s="43"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="23"/>
       <c r="B728" s="16"/>
       <c r="C728" s="16"/>
@@ -16163,7 +16171,7 @@
       <c r="J728" s="17"/>
       <c r="K728" s="43"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="23"/>
       <c r="B729" s="16"/>
       <c r="C729" s="16"/>
@@ -16176,7 +16184,7 @@
       <c r="J729" s="17"/>
       <c r="K729" s="43"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="23"/>
       <c r="B730" s="16"/>
       <c r="C730" s="16"/>
@@ -16189,7 +16197,7 @@
       <c r="J730" s="17"/>
       <c r="K730" s="43"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="23"/>
       <c r="B731" s="16"/>
       <c r="C731" s="16"/>
@@ -16202,7 +16210,7 @@
       <c r="J731" s="17"/>
       <c r="K731" s="43"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="23"/>
       <c r="B732" s="16"/>
       <c r="C732" s="16"/>
@@ -16215,7 +16223,7 @@
       <c r="J732" s="17"/>
       <c r="K732" s="43"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="23"/>
       <c r="B733" s="16"/>
       <c r="C733" s="16"/>
@@ -16228,7 +16236,7 @@
       <c r="J733" s="17"/>
       <c r="K733" s="43"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="23"/>
       <c r="B734" s="16"/>
       <c r="C734" s="16"/>
@@ -16241,7 +16249,7 @@
       <c r="J734" s="17"/>
       <c r="K734" s="43"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="23"/>
       <c r="B735" s="16"/>
       <c r="C735" s="16"/>
@@ -16254,7 +16262,7 @@
       <c r="J735" s="17"/>
       <c r="K735" s="43"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="23"/>
       <c r="B736" s="16"/>
       <c r="C736" s="16"/>
@@ -16267,7 +16275,7 @@
       <c r="J736" s="17"/>
       <c r="K736" s="43"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="23"/>
       <c r="B737" s="16"/>
       <c r="C737" s="16"/>
@@ -16280,7 +16288,7 @@
       <c r="J737" s="17"/>
       <c r="K737" s="43"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="23"/>
       <c r="B738" s="16"/>
       <c r="C738" s="16"/>
@@ -16293,7 +16301,7 @@
       <c r="J738" s="17"/>
       <c r="K738" s="43"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="23"/>
       <c r="B739" s="16"/>
       <c r="C739" s="16"/>
@@ -16306,7 +16314,7 @@
       <c r="J739" s="17"/>
       <c r="K739" s="43"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="23"/>
       <c r="B740" s="16"/>
       <c r="C740" s="16"/>
@@ -16319,7 +16327,7 @@
       <c r="J740" s="17"/>
       <c r="K740" s="43"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="23"/>
       <c r="B741" s="16"/>
       <c r="C741" s="16"/>
@@ -16332,7 +16340,7 @@
       <c r="J741" s="17"/>
       <c r="K741" s="43"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="23"/>
       <c r="B742" s="16"/>
       <c r="C742" s="16"/>
@@ -16345,7 +16353,7 @@
       <c r="J742" s="17"/>
       <c r="K742" s="43"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="23"/>
       <c r="B743" s="16"/>
       <c r="C743" s="16"/>
@@ -16358,7 +16366,7 @@
       <c r="J743" s="17"/>
       <c r="K743" s="43"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="23"/>
       <c r="B744" s="16"/>
       <c r="C744" s="16"/>
@@ -16371,7 +16379,7 @@
       <c r="J744" s="17"/>
       <c r="K744" s="43"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="23"/>
       <c r="B745" s="16"/>
       <c r="C745" s="16"/>
@@ -16384,7 +16392,7 @@
       <c r="J745" s="17"/>
       <c r="K745" s="43"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="23"/>
       <c r="B746" s="16"/>
       <c r="C746" s="16"/>
@@ -16397,7 +16405,7 @@
       <c r="J746" s="17"/>
       <c r="K746" s="43"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="23"/>
       <c r="B747" s="16"/>
       <c r="C747" s="16"/>
@@ -16410,7 +16418,7 @@
       <c r="J747" s="17"/>
       <c r="K747" s="43"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="23"/>
       <c r="B748" s="16"/>
       <c r="C748" s="16"/>
@@ -16423,7 +16431,7 @@
       <c r="J748" s="17"/>
       <c r="K748" s="43"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="23"/>
       <c r="B749" s="16"/>
       <c r="C749" s="16"/>
@@ -16436,7 +16444,7 @@
       <c r="J749" s="17"/>
       <c r="K749" s="43"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="23"/>
       <c r="B750" s="16"/>
       <c r="C750" s="16"/>
@@ -16449,7 +16457,7 @@
       <c r="J750" s="17"/>
       <c r="K750" s="43"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="23"/>
       <c r="B751" s="16"/>
       <c r="C751" s="16"/>
@@ -16462,7 +16470,7 @@
       <c r="J751" s="17"/>
       <c r="K751" s="43"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="23"/>
       <c r="B752" s="16"/>
       <c r="C752" s="16"/>
@@ -16475,7 +16483,7 @@
       <c r="J752" s="17"/>
       <c r="K752" s="43"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="23"/>
       <c r="B753" s="16"/>
       <c r="C753" s="16"/>
@@ -16488,7 +16496,7 @@
       <c r="J753" s="17"/>
       <c r="K753" s="43"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="23"/>
       <c r="B754" s="16"/>
       <c r="C754" s="16"/>
@@ -16501,7 +16509,7 @@
       <c r="J754" s="17"/>
       <c r="K754" s="43"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="23"/>
       <c r="B755" s="16"/>
       <c r="C755" s="16"/>
@@ -16514,7 +16522,7 @@
       <c r="J755" s="17"/>
       <c r="K755" s="43"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="23"/>
       <c r="B756" s="16"/>
       <c r="C756" s="16"/>
@@ -16527,7 +16535,7 @@
       <c r="J756" s="17"/>
       <c r="K756" s="43"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="23"/>
       <c r="B757" s="16"/>
       <c r="C757" s="16"/>
@@ -16540,7 +16548,7 @@
       <c r="J757" s="17"/>
       <c r="K757" s="43"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="23"/>
       <c r="B758" s="16"/>
       <c r="C758" s="16"/>
@@ -16553,7 +16561,7 @@
       <c r="J758" s="17"/>
       <c r="K758" s="43"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="23"/>
       <c r="B759" s="16"/>
       <c r="C759" s="16"/>
@@ -16566,7 +16574,7 @@
       <c r="J759" s="17"/>
       <c r="K759" s="43"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="23"/>
       <c r="B760" s="16"/>
       <c r="C760" s="16"/>
@@ -16579,7 +16587,7 @@
       <c r="J760" s="17"/>
       <c r="K760" s="43"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="23"/>
       <c r="B761" s="16"/>
       <c r="C761" s="16"/>
@@ -16592,7 +16600,7 @@
       <c r="J761" s="17"/>
       <c r="K761" s="43"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="23"/>
       <c r="B762" s="16"/>
       <c r="C762" s="16"/>
@@ -16605,7 +16613,7 @@
       <c r="J762" s="17"/>
       <c r="K762" s="43"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="23"/>
       <c r="B763" s="16"/>
       <c r="C763" s="16"/>
@@ -16618,7 +16626,7 @@
       <c r="J763" s="17"/>
       <c r="K763" s="43"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="23"/>
       <c r="B764" s="16"/>
       <c r="C764" s="16"/>
@@ -16631,7 +16639,7 @@
       <c r="J764" s="17"/>
       <c r="K764" s="43"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="23"/>
       <c r="B765" s="16"/>
       <c r="C765" s="16"/>
@@ -16644,7 +16652,7 @@
       <c r="J765" s="17"/>
       <c r="K765" s="43"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="23"/>
       <c r="B766" s="16"/>
       <c r="C766" s="16"/>
@@ -16657,7 +16665,7 @@
       <c r="J766" s="17"/>
       <c r="K766" s="43"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="23"/>
       <c r="B767" s="16"/>
       <c r="C767" s="16"/>
@@ -16670,7 +16678,7 @@
       <c r="J767" s="17"/>
       <c r="K767" s="43"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="23"/>
       <c r="B768" s="16"/>
       <c r="C768" s="16"/>
@@ -16683,7 +16691,7 @@
       <c r="J768" s="17"/>
       <c r="K768" s="43"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="23"/>
       <c r="B769" s="16"/>
       <c r="C769" s="16"/>
@@ -16696,7 +16704,7 @@
       <c r="J769" s="17"/>
       <c r="K769" s="43"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="23"/>
       <c r="B770" s="16"/>
       <c r="C770" s="16"/>
@@ -16709,7 +16717,7 @@
       <c r="J770" s="17"/>
       <c r="K770" s="43"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="23"/>
       <c r="B771" s="16"/>
       <c r="C771" s="16"/>
@@ -16722,7 +16730,7 @@
       <c r="J771" s="17"/>
       <c r="K771" s="43"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="23"/>
       <c r="B772" s="16"/>
       <c r="C772" s="16"/>
@@ -16735,7 +16743,7 @@
       <c r="J772" s="17"/>
       <c r="K772" s="43"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="23"/>
       <c r="B773" s="16"/>
       <c r="C773" s="16"/>
@@ -16748,7 +16756,7 @@
       <c r="J773" s="17"/>
       <c r="K773" s="43"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="23"/>
       <c r="B774" s="16"/>
       <c r="C774" s="16"/>
@@ -16761,7 +16769,7 @@
       <c r="J774" s="17"/>
       <c r="K774" s="43"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="23"/>
       <c r="B775" s="16"/>
       <c r="C775" s="16"/>
@@ -16774,7 +16782,7 @@
       <c r="J775" s="17"/>
       <c r="K775" s="43"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="23"/>
       <c r="B776" s="16"/>
       <c r="C776" s="16"/>
@@ -16787,7 +16795,7 @@
       <c r="J776" s="17"/>
       <c r="K776" s="43"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="23"/>
       <c r="B777" s="16"/>
       <c r="C777" s="16"/>
@@ -16800,7 +16808,7 @@
       <c r="J777" s="17"/>
       <c r="K777" s="43"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="23"/>
       <c r="B778" s="16"/>
       <c r="C778" s="16"/>
@@ -16813,7 +16821,7 @@
       <c r="J778" s="17"/>
       <c r="K778" s="43"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="23"/>
       <c r="B779" s="16"/>
       <c r="C779" s="16"/>
@@ -16826,7 +16834,7 @@
       <c r="J779" s="17"/>
       <c r="K779" s="43"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="23"/>
       <c r="B780" s="16"/>
       <c r="C780" s="16"/>
@@ -16839,7 +16847,7 @@
       <c r="J780" s="17"/>
       <c r="K780" s="43"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="23"/>
       <c r="B781" s="16"/>
       <c r="C781" s="16"/>
@@ -16852,7 +16860,7 @@
       <c r="J781" s="17"/>
       <c r="K781" s="43"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="23"/>
       <c r="B782" s="16"/>
       <c r="C782" s="16"/>
@@ -16865,7 +16873,7 @@
       <c r="J782" s="17"/>
       <c r="K782" s="43"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="23"/>
       <c r="B783" s="16"/>
       <c r="C783" s="16"/>
@@ -16878,7 +16886,7 @@
       <c r="J783" s="17"/>
       <c r="K783" s="43"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="23"/>
       <c r="B784" s="16"/>
       <c r="C784" s="16"/>
@@ -16891,7 +16899,7 @@
       <c r="J784" s="17"/>
       <c r="K784" s="43"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="23"/>
       <c r="B785" s="16"/>
       <c r="C785" s="16"/>
@@ -16904,7 +16912,7 @@
       <c r="J785" s="17"/>
       <c r="K785" s="43"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="23"/>
       <c r="B786" s="16"/>
       <c r="C786" s="16"/>
@@ -16917,7 +16925,7 @@
       <c r="J786" s="17"/>
       <c r="K786" s="43"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="23"/>
       <c r="B787" s="16"/>
       <c r="C787" s="16"/>
@@ -16930,7 +16938,7 @@
       <c r="J787" s="17"/>
       <c r="K787" s="43"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="23"/>
       <c r="B788" s="16"/>
       <c r="C788" s="16"/>
@@ -16943,7 +16951,7 @@
       <c r="J788" s="17"/>
       <c r="K788" s="43"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="23"/>
       <c r="B789" s="16"/>
       <c r="C789" s="16"/>
@@ -16956,7 +16964,7 @@
       <c r="J789" s="17"/>
       <c r="K789" s="43"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="23"/>
       <c r="B790" s="16"/>
       <c r="C790" s="16"/>
@@ -16969,7 +16977,7 @@
       <c r="J790" s="17"/>
       <c r="K790" s="43"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="23"/>
       <c r="B791" s="16"/>
       <c r="C791" s="16"/>
@@ -16982,7 +16990,7 @@
       <c r="J791" s="17"/>
       <c r="K791" s="43"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="23"/>
       <c r="B792" s="16"/>
       <c r="C792" s="16"/>
@@ -16995,7 +17003,7 @@
       <c r="J792" s="17"/>
       <c r="K792" s="43"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="23"/>
       <c r="B793" s="16"/>
       <c r="C793" s="16"/>
@@ -17008,7 +17016,7 @@
       <c r="J793" s="17"/>
       <c r="K793" s="43"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="23"/>
       <c r="B794" s="16"/>
       <c r="C794" s="16"/>
@@ -17021,7 +17029,7 @@
       <c r="J794" s="17"/>
       <c r="K794" s="43"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="23"/>
       <c r="B795" s="16"/>
       <c r="C795" s="16"/>
@@ -17034,7 +17042,7 @@
       <c r="J795" s="17"/>
       <c r="K795" s="43"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="23"/>
       <c r="B796" s="16"/>
       <c r="C796" s="16"/>
@@ -17047,7 +17055,7 @@
       <c r="J796" s="17"/>
       <c r="K796" s="43"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="23"/>
       <c r="B797" s="16"/>
       <c r="C797" s="16"/>
@@ -17060,7 +17068,7 @@
       <c r="J797" s="17"/>
       <c r="K797" s="43"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="23"/>
       <c r="B798" s="16"/>
       <c r="C798" s="16"/>
@@ -17073,7 +17081,7 @@
       <c r="J798" s="17"/>
       <c r="K798" s="43"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="23"/>
       <c r="B799" s="16"/>
       <c r="C799" s="16"/>
@@ -17086,7 +17094,7 @@
       <c r="J799" s="17"/>
       <c r="K799" s="43"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="23"/>
       <c r="B800" s="16"/>
       <c r="C800" s="16"/>
@@ -17099,7 +17107,7 @@
       <c r="J800" s="17"/>
       <c r="K800" s="43"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="23"/>
       <c r="B801" s="16"/>
       <c r="C801" s="16"/>
@@ -17112,7 +17120,7 @@
       <c r="J801" s="17"/>
       <c r="K801" s="43"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="23"/>
       <c r="B802" s="16"/>
       <c r="C802" s="16"/>
@@ -17125,7 +17133,7 @@
       <c r="J802" s="17"/>
       <c r="K802" s="43"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="23"/>
       <c r="B803" s="16"/>
       <c r="C803" s="16"/>
@@ -17138,7 +17146,7 @@
       <c r="J803" s="17"/>
       <c r="K803" s="43"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="23"/>
       <c r="B804" s="16"/>
       <c r="C804" s="16"/>
@@ -17151,7 +17159,7 @@
       <c r="J804" s="17"/>
       <c r="K804" s="43"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="23"/>
       <c r="B805" s="16"/>
       <c r="C805" s="16"/>
@@ -17164,7 +17172,7 @@
       <c r="J805" s="17"/>
       <c r="K805" s="43"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="23"/>
       <c r="B806" s="16"/>
       <c r="C806" s="16"/>
@@ -17177,7 +17185,7 @@
       <c r="J806" s="17"/>
       <c r="K806" s="43"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="23"/>
       <c r="B807" s="16"/>
       <c r="C807" s="16"/>
@@ -17190,7 +17198,7 @@
       <c r="J807" s="17"/>
       <c r="K807" s="43"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="23"/>
       <c r="B808" s="16"/>
       <c r="C808" s="16"/>
@@ -17203,7 +17211,7 @@
       <c r="J808" s="17"/>
       <c r="K808" s="43"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="23"/>
       <c r="B809" s="16"/>
       <c r="C809" s="16"/>
@@ -17216,7 +17224,7 @@
       <c r="J809" s="17"/>
       <c r="K809" s="43"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="23"/>
       <c r="B810" s="16"/>
       <c r="C810" s="16"/>
@@ -17229,7 +17237,7 @@
       <c r="J810" s="17"/>
       <c r="K810" s="43"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="23"/>
       <c r="B811" s="16"/>
       <c r="C811" s="16"/>
@@ -17242,7 +17250,7 @@
       <c r="J811" s="17"/>
       <c r="K811" s="43"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="23"/>
       <c r="B812" s="16"/>
       <c r="C812" s="16"/>
@@ -17255,7 +17263,7 @@
       <c r="J812" s="17"/>
       <c r="K812" s="43"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="23"/>
       <c r="B813" s="16"/>
       <c r="C813" s="16"/>
@@ -17268,7 +17276,7 @@
       <c r="J813" s="17"/>
       <c r="K813" s="43"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="23"/>
       <c r="B814" s="16"/>
       <c r="C814" s="16"/>
@@ -17281,7 +17289,7 @@
       <c r="J814" s="17"/>
       <c r="K814" s="43"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="23"/>
       <c r="B815" s="16"/>
       <c r="C815" s="16"/>
@@ -17294,7 +17302,7 @@
       <c r="J815" s="17"/>
       <c r="K815" s="43"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="23"/>
       <c r="B816" s="16"/>
       <c r="C816" s="16"/>
@@ -17307,7 +17315,7 @@
       <c r="J816" s="17"/>
       <c r="K816" s="43"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="23"/>
       <c r="B817" s="16"/>
       <c r="C817" s="16"/>
@@ -17320,7 +17328,7 @@
       <c r="J817" s="17"/>
       <c r="K817" s="43"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="23"/>
       <c r="B818" s="16"/>
       <c r="C818" s="16"/>
@@ -17333,7 +17341,7 @@
       <c r="J818" s="17"/>
       <c r="K818" s="43"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="23"/>
       <c r="B819" s="16"/>
       <c r="C819" s="16"/>
@@ -17346,7 +17354,7 @@
       <c r="J819" s="17"/>
       <c r="K819" s="43"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="23"/>
       <c r="B820" s="16"/>
       <c r="C820" s="16"/>
@@ -17359,7 +17367,7 @@
       <c r="J820" s="17"/>
       <c r="K820" s="43"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="23"/>
       <c r="B821" s="16"/>
       <c r="C821" s="16"/>
@@ -17372,7 +17380,7 @@
       <c r="J821" s="17"/>
       <c r="K821" s="43"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="23"/>
       <c r="B822" s="16"/>
       <c r="C822" s="16"/>
@@ -17385,7 +17393,7 @@
       <c r="J822" s="17"/>
       <c r="K822" s="43"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="23"/>
       <c r="B823" s="16"/>
       <c r="C823" s="16"/>
@@ -17398,7 +17406,7 @@
       <c r="J823" s="17"/>
       <c r="K823" s="43"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="23"/>
       <c r="B824" s="16"/>
       <c r="C824" s="16"/>
@@ -17411,7 +17419,7 @@
       <c r="J824" s="17"/>
       <c r="K824" s="43"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="23"/>
       <c r="B825" s="16"/>
       <c r="C825" s="16"/>
@@ -17424,7 +17432,7 @@
       <c r="J825" s="17"/>
       <c r="K825" s="43"/>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" s="23"/>
       <c r="B826" s="16"/>
       <c r="C826" s="16"/>
@@ -17437,7 +17445,7 @@
       <c r="J826" s="17"/>
       <c r="K826" s="43"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" s="23"/>
       <c r="B827" s="16"/>
       <c r="C827" s="16"/>
@@ -17450,7 +17458,7 @@
       <c r="J827" s="17"/>
       <c r="K827" s="43"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" s="23"/>
       <c r="B828" s="16"/>
       <c r="C828" s="16"/>
@@ -17463,7 +17471,7 @@
       <c r="J828" s="17"/>
       <c r="K828" s="43"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" s="23"/>
       <c r="B829" s="16"/>
       <c r="C829" s="16"/>
@@ -17476,7 +17484,7 @@
       <c r="J829" s="17"/>
       <c r="K829" s="43"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" s="23"/>
       <c r="B830" s="16"/>
       <c r="C830" s="16"/>
@@ -17489,7 +17497,7 @@
       <c r="J830" s="17"/>
       <c r="K830" s="43"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" s="23"/>
       <c r="B831" s="16"/>
       <c r="C831" s="16"/>
@@ -17502,7 +17510,7 @@
       <c r="J831" s="17"/>
       <c r="K831" s="43"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" s="23"/>
       <c r="B832" s="16"/>
       <c r="C832" s="16"/>
@@ -17515,7 +17523,7 @@
       <c r="J832" s="17"/>
       <c r="K832" s="43"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" s="23"/>
       <c r="B833" s="16"/>
       <c r="C833" s="16"/>
@@ -17528,7 +17536,7 @@
       <c r="J833" s="17"/>
       <c r="K833" s="43"/>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" s="23"/>
       <c r="B834" s="16"/>
       <c r="C834" s="16"/>
@@ -17541,7 +17549,7 @@
       <c r="J834" s="17"/>
       <c r="K834" s="43"/>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" s="23"/>
       <c r="B835" s="16"/>
       <c r="C835" s="16"/>
@@ -17554,7 +17562,7 @@
       <c r="J835" s="17"/>
       <c r="K835" s="43"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A836" s="23"/>
       <c r="B836" s="16"/>
       <c r="C836" s="16"/>
@@ -17567,7 +17575,7 @@
       <c r="J836" s="17"/>
       <c r="K836" s="43"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A837" s="23"/>
       <c r="B837" s="16"/>
       <c r="C837" s="16"/>
@@ -17580,7 +17588,7 @@
       <c r="J837" s="17"/>
       <c r="K837" s="43"/>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A838" s="23"/>
       <c r="B838" s="16"/>
       <c r="C838" s="16"/>
@@ -17593,7 +17601,7 @@
       <c r="J838" s="17"/>
       <c r="K838" s="43"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A839" s="23"/>
       <c r="B839" s="16"/>
       <c r="C839" s="16"/>
@@ -17606,7 +17614,7 @@
       <c r="J839" s="17"/>
       <c r="K839" s="43"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A840" s="23"/>
       <c r="B840" s="16"/>
       <c r="C840" s="16"/>
@@ -17619,7 +17627,7 @@
       <c r="J840" s="17"/>
       <c r="K840" s="43"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A841" s="23"/>
       <c r="B841" s="16"/>
       <c r="C841" s="16"/>
@@ -17632,7 +17640,7 @@
       <c r="J841" s="17"/>
       <c r="K841" s="43"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A842" s="23"/>
       <c r="B842" s="16"/>
       <c r="C842" s="16"/>
@@ -17645,7 +17653,7 @@
       <c r="J842" s="17"/>
       <c r="K842" s="43"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A843" s="23"/>
       <c r="B843" s="16"/>
       <c r="C843" s="16"/>
@@ -17658,7 +17666,7 @@
       <c r="J843" s="17"/>
       <c r="K843" s="43"/>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A844" s="23"/>
       <c r="B844" s="16"/>
       <c r="C844" s="16"/>
@@ -17671,7 +17679,7 @@
       <c r="J844" s="17"/>
       <c r="K844" s="43"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A845" s="23"/>
       <c r="B845" s="16"/>
       <c r="C845" s="16"/>
@@ -17684,7 +17692,7 @@
       <c r="J845" s="17"/>
       <c r="K845" s="43"/>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A846" s="23"/>
       <c r="B846" s="16"/>
       <c r="C846" s="16"/>
@@ -17697,7 +17705,7 @@
       <c r="J846" s="17"/>
       <c r="K846" s="43"/>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A847" s="23"/>
       <c r="B847" s="16"/>
       <c r="C847" s="16"/>
@@ -17710,7 +17718,7 @@
       <c r="J847" s="17"/>
       <c r="K847" s="43"/>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A848" s="23"/>
       <c r="B848" s="16"/>
       <c r="C848" s="16"/>
@@ -17723,7 +17731,7 @@
       <c r="J848" s="17"/>
       <c r="K848" s="43"/>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A849" s="23"/>
       <c r="B849" s="16"/>
       <c r="C849" s="16"/>
@@ -17736,7 +17744,7 @@
       <c r="J849" s="17"/>
       <c r="K849" s="43"/>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A850" s="23"/>
       <c r="B850" s="16"/>
       <c r="C850" s="16"/>
@@ -17749,7 +17757,7 @@
       <c r="J850" s="17"/>
       <c r="K850" s="43"/>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A851" s="23"/>
       <c r="B851" s="16"/>
       <c r="C851" s="16"/>
@@ -17762,7 +17770,7 @@
       <c r="J851" s="17"/>
       <c r="K851" s="43"/>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A852" s="23"/>
       <c r="B852" s="16"/>
       <c r="C852" s="16"/>
@@ -17775,7 +17783,7 @@
       <c r="J852" s="17"/>
       <c r="K852" s="43"/>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A853" s="23"/>
       <c r="B853" s="16"/>
       <c r="C853" s="16"/>
@@ -17788,7 +17796,7 @@
       <c r="J853" s="17"/>
       <c r="K853" s="43"/>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A854" s="23"/>
       <c r="B854" s="16"/>
       <c r="C854" s="16"/>
@@ -17801,7 +17809,7 @@
       <c r="J854" s="17"/>
       <c r="K854" s="43"/>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A855" s="23"/>
       <c r="B855" s="16"/>
       <c r="C855" s="16"/>
@@ -17814,7 +17822,7 @@
       <c r="J855" s="17"/>
       <c r="K855" s="43"/>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A856" s="23"/>
       <c r="B856" s="16"/>
       <c r="C856" s="16"/>
@@ -17827,7 +17835,7 @@
       <c r="J856" s="17"/>
       <c r="K856" s="43"/>
     </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A857" s="23"/>
       <c r="B857" s="16"/>
       <c r="C857" s="16"/>
@@ -17840,7 +17848,7 @@
       <c r="J857" s="17"/>
       <c r="K857" s="43"/>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A858" s="23"/>
       <c r="B858" s="16"/>
       <c r="C858" s="16"/>
@@ -17853,7 +17861,7 @@
       <c r="J858" s="17"/>
       <c r="K858" s="43"/>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A859" s="23"/>
       <c r="B859" s="16"/>
       <c r="C859" s="16"/>
@@ -17866,7 +17874,7 @@
       <c r="J859" s="17"/>
       <c r="K859" s="43"/>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A860" s="23"/>
       <c r="B860" s="16"/>
       <c r="C860" s="16"/>
@@ -17879,7 +17887,7 @@
       <c r="J860" s="17"/>
       <c r="K860" s="43"/>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A861" s="23"/>
       <c r="B861" s="16"/>
       <c r="C861" s="16"/>
@@ -17892,7 +17900,7 @@
       <c r="J861" s="17"/>
       <c r="K861" s="43"/>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A862" s="23"/>
       <c r="B862" s="16"/>
       <c r="C862" s="16"/>
@@ -17905,7 +17913,7 @@
       <c r="J862" s="17"/>
       <c r="K862" s="43"/>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A863" s="23"/>
       <c r="B863" s="16"/>
       <c r="C863" s="16"/>
@@ -17918,7 +17926,7 @@
       <c r="J863" s="17"/>
       <c r="K863" s="43"/>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A864" s="23"/>
       <c r="B864" s="16"/>
       <c r="C864" s="16"/>
@@ -17931,7 +17939,7 @@
       <c r="J864" s="17"/>
       <c r="K864" s="43"/>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A865" s="23"/>
       <c r="B865" s="16"/>
       <c r="C865" s="16"/>
@@ -17944,7 +17952,7 @@
       <c r="J865" s="17"/>
       <c r="K865" s="43"/>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A866" s="23"/>
       <c r="B866" s="16"/>
       <c r="C866" s="16"/>
@@ -17957,7 +17965,7 @@
       <c r="J866" s="17"/>
       <c r="K866" s="43"/>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A867" s="23"/>
       <c r="B867" s="16"/>
       <c r="C867" s="16"/>
@@ -17970,7 +17978,7 @@
       <c r="J867" s="17"/>
       <c r="K867" s="43"/>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A868" s="23"/>
       <c r="B868" s="16"/>
       <c r="C868" s="16"/>
@@ -17983,7 +17991,7 @@
       <c r="J868" s="17"/>
       <c r="K868" s="43"/>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A869" s="23"/>
       <c r="B869" s="16"/>
       <c r="C869" s="16"/>
@@ -17996,7 +18004,7 @@
       <c r="J869" s="17"/>
       <c r="K869" s="43"/>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A870" s="23"/>
       <c r="B870" s="16"/>
       <c r="C870" s="16"/>
@@ -18009,7 +18017,7 @@
       <c r="J870" s="17"/>
       <c r="K870" s="43"/>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A871" s="23"/>
       <c r="B871" s="16"/>
       <c r="C871" s="16"/>
@@ -18022,7 +18030,7 @@
       <c r="J871" s="17"/>
       <c r="K871" s="43"/>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A872" s="23"/>
       <c r="B872" s="16"/>
       <c r="C872" s="16"/>
@@ -18035,7 +18043,7 @@
       <c r="J872" s="17"/>
       <c r="K872" s="43"/>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A873" s="23"/>
       <c r="B873" s="16"/>
       <c r="C873" s="16"/>
@@ -18048,7 +18056,7 @@
       <c r="J873" s="17"/>
       <c r="K873" s="43"/>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A874" s="23"/>
       <c r="B874" s="16"/>
       <c r="C874" s="16"/>
@@ -18061,7 +18069,7 @@
       <c r="J874" s="17"/>
       <c r="K874" s="43"/>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A875" s="23"/>
       <c r="B875" s="16"/>
       <c r="C875" s="16"/>
@@ -18074,7 +18082,7 @@
       <c r="J875" s="17"/>
       <c r="K875" s="43"/>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A876" s="23"/>
       <c r="B876" s="16"/>
       <c r="C876" s="16"/>
@@ -18087,7 +18095,7 @@
       <c r="J876" s="17"/>
       <c r="K876" s="43"/>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A877" s="23"/>
       <c r="B877" s="16"/>
       <c r="C877" s="16"/>
@@ -18100,7 +18108,7 @@
       <c r="J877" s="17"/>
       <c r="K877" s="43"/>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A878" s="23"/>
       <c r="B878" s="16"/>
       <c r="C878" s="16"/>
@@ -18113,7 +18121,7 @@
       <c r="J878" s="17"/>
       <c r="K878" s="43"/>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A879" s="23"/>
       <c r="B879" s="16"/>
       <c r="C879" s="16"/>
@@ -18126,7 +18134,7 @@
       <c r="J879" s="17"/>
       <c r="K879" s="43"/>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A880" s="23"/>
       <c r="B880" s="16"/>
       <c r="C880" s="16"/>
@@ -18139,7 +18147,7 @@
       <c r="J880" s="17"/>
       <c r="K880" s="43"/>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A881" s="23"/>
       <c r="B881" s="16"/>
       <c r="C881" s="16"/>
@@ -18152,7 +18160,7 @@
       <c r="J881" s="17"/>
       <c r="K881" s="43"/>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A882" s="23"/>
       <c r="B882" s="16"/>
       <c r="C882" s="16"/>
@@ -18165,7 +18173,7 @@
       <c r="J882" s="17"/>
       <c r="K882" s="43"/>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A883" s="23"/>
       <c r="B883" s="16"/>
       <c r="C883" s="16"/>
@@ -18178,7 +18186,7 @@
       <c r="J883" s="17"/>
       <c r="K883" s="43"/>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A884" s="23"/>
       <c r="B884" s="16"/>
       <c r="C884" s="16"/>
@@ -18191,7 +18199,7 @@
       <c r="J884" s="17"/>
       <c r="K884" s="43"/>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A885" s="23"/>
       <c r="B885" s="16"/>
       <c r="C885" s="16"/>
@@ -18204,7 +18212,7 @@
       <c r="J885" s="17"/>
       <c r="K885" s="43"/>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A886" s="23"/>
       <c r="B886" s="16"/>
       <c r="C886" s="16"/>
@@ -18217,7 +18225,7 @@
       <c r="J886" s="17"/>
       <c r="K886" s="43"/>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A887" s="23"/>
       <c r="B887" s="16"/>
       <c r="C887" s="16"/>
@@ -18230,7 +18238,7 @@
       <c r="J887" s="17"/>
       <c r="K887" s="43"/>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A888" s="23"/>
       <c r="B888" s="16"/>
       <c r="C888" s="16"/>
@@ -18243,7 +18251,7 @@
       <c r="J888" s="17"/>
       <c r="K888" s="43"/>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A889" s="23"/>
       <c r="B889" s="16"/>
       <c r="C889" s="16"/>
@@ -18256,7 +18264,7 @@
       <c r="J889" s="17"/>
       <c r="K889" s="43"/>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A890" s="23"/>
       <c r="B890" s="16"/>
       <c r="C890" s="16"/>
@@ -18269,7 +18277,7 @@
       <c r="J890" s="17"/>
       <c r="K890" s="43"/>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A891" s="23"/>
       <c r="B891" s="16"/>
       <c r="C891" s="16"/>
@@ -18282,7 +18290,7 @@
       <c r="J891" s="17"/>
       <c r="K891" s="43"/>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A892" s="23"/>
       <c r="B892" s="16"/>
       <c r="C892" s="16"/>
@@ -18295,7 +18303,7 @@
       <c r="J892" s="17"/>
       <c r="K892" s="43"/>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A893" s="23"/>
       <c r="B893" s="16"/>
       <c r="C893" s="16"/>
@@ -18308,7 +18316,7 @@
       <c r="J893" s="17"/>
       <c r="K893" s="43"/>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A894" s="23"/>
       <c r="B894" s="16"/>
       <c r="C894" s="16"/>
@@ -18321,7 +18329,7 @@
       <c r="J894" s="17"/>
       <c r="K894" s="43"/>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A895" s="23"/>
       <c r="B895" s="16"/>
       <c r="C895" s="16"/>
@@ -18334,7 +18342,7 @@
       <c r="J895" s="17"/>
       <c r="K895" s="43"/>
     </row>
-    <row r="896" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A896" s="23"/>
       <c r="B896" s="16"/>
       <c r="C896" s="16"/>
@@ -18347,7 +18355,7 @@
       <c r="J896" s="17"/>
       <c r="K896" s="43"/>
     </row>
-    <row r="897" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A897" s="23"/>
       <c r="B897" s="16"/>
       <c r="C897" s="16"/>
@@ -18360,7 +18368,7 @@
       <c r="J897" s="17"/>
       <c r="K897" s="43"/>
     </row>
-    <row r="898" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A898" s="23"/>
       <c r="B898" s="16"/>
       <c r="C898" s="16"/>
@@ -18373,7 +18381,7 @@
       <c r="J898" s="17"/>
       <c r="K898" s="43"/>
     </row>
-    <row r="899" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A899" s="23"/>
       <c r="B899" s="16"/>
       <c r="C899" s="16"/>
@@ -18386,7 +18394,7 @@
       <c r="J899" s="17"/>
       <c r="K899" s="43"/>
     </row>
-    <row r="900" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A900" s="23"/>
       <c r="B900" s="16"/>
       <c r="C900" s="16"/>
@@ -18399,7 +18407,7 @@
       <c r="J900" s="17"/>
       <c r="K900" s="43"/>
     </row>
-    <row r="901" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A901" s="23"/>
       <c r="B901" s="16"/>
       <c r="C901" s="16"/>
@@ -18412,7 +18420,7 @@
       <c r="J901" s="17"/>
       <c r="K901" s="43"/>
     </row>
-    <row r="902" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A902" s="23"/>
       <c r="B902" s="16"/>
       <c r="C902" s="16"/>
@@ -18425,7 +18433,7 @@
       <c r="J902" s="17"/>
       <c r="K902" s="43"/>
     </row>
-    <row r="903" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A903" s="23"/>
       <c r="B903" s="16"/>
       <c r="C903" s="16"/>
@@ -18438,7 +18446,7 @@
       <c r="J903" s="17"/>
       <c r="K903" s="43"/>
     </row>
-    <row r="904" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A904" s="23"/>
       <c r="B904" s="16"/>
       <c r="C904" s="16"/>
@@ -18451,7 +18459,7 @@
       <c r="J904" s="17"/>
       <c r="K904" s="43"/>
     </row>
-    <row r="905" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A905" s="23"/>
       <c r="B905" s="16"/>
       <c r="C905" s="16"/>
@@ -18464,7 +18472,7 @@
       <c r="J905" s="17"/>
       <c r="K905" s="43"/>
     </row>
-    <row r="906" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A906" s="23"/>
       <c r="B906" s="16"/>
       <c r="C906" s="16"/>
@@ -18477,7 +18485,7 @@
       <c r="J906" s="17"/>
       <c r="K906" s="43"/>
     </row>
-    <row r="907" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A907" s="23"/>
       <c r="B907" s="16"/>
       <c r="C907" s="16"/>
@@ -18490,7 +18498,7 @@
       <c r="J907" s="17"/>
       <c r="K907" s="43"/>
     </row>
-    <row r="908" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A908" s="23"/>
       <c r="B908" s="16"/>
       <c r="C908" s="16"/>
@@ -18503,7 +18511,7 @@
       <c r="J908" s="17"/>
       <c r="K908" s="43"/>
     </row>
-    <row r="909" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A909" s="23"/>
       <c r="B909" s="16"/>
       <c r="C909" s="16"/>
@@ -18516,7 +18524,7 @@
       <c r="J909" s="17"/>
       <c r="K909" s="43"/>
     </row>
-    <row r="910" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A910" s="23"/>
       <c r="B910" s="16"/>
       <c r="C910" s="16"/>
@@ -18529,7 +18537,7 @@
       <c r="J910" s="17"/>
       <c r="K910" s="43"/>
     </row>
-    <row r="911" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A911" s="23"/>
       <c r="B911" s="16"/>
       <c r="C911" s="16"/>
@@ -18542,7 +18550,7 @@
       <c r="J911" s="17"/>
       <c r="K911" s="43"/>
     </row>
-    <row r="912" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A912" s="23"/>
       <c r="B912" s="16"/>
       <c r="C912" s="16"/>
@@ -18555,7 +18563,7 @@
       <c r="J912" s="17"/>
       <c r="K912" s="43"/>
     </row>
-    <row r="913" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A913" s="23"/>
       <c r="B913" s="16"/>
       <c r="C913" s="16"/>
@@ -18568,7 +18576,7 @@
       <c r="J913" s="17"/>
       <c r="K913" s="43"/>
     </row>
-    <row r="914" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A914" s="23"/>
       <c r="B914" s="16"/>
       <c r="C914" s="16"/>
@@ -18581,7 +18589,7 @@
       <c r="J914" s="17"/>
       <c r="K914" s="43"/>
     </row>
-    <row r="915" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A915" s="23"/>
       <c r="B915" s="16"/>
       <c r="C915" s="16"/>
@@ -18594,7 +18602,7 @@
       <c r="J915" s="17"/>
       <c r="K915" s="43"/>
     </row>
-    <row r="916" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A916" s="23"/>
       <c r="B916" s="16"/>
       <c r="C916" s="16"/>
@@ -18607,7 +18615,7 @@
       <c r="J916" s="17"/>
       <c r="K916" s="43"/>
     </row>
-    <row r="917" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A917" s="23"/>
       <c r="B917" s="16"/>
       <c r="C917" s="16"/>
@@ -18620,7 +18628,7 @@
       <c r="J917" s="17"/>
       <c r="K917" s="43"/>
     </row>
-    <row r="918" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A918" s="23"/>
       <c r="B918" s="16"/>
       <c r="C918" s="16"/>
@@ -18633,7 +18641,7 @@
       <c r="J918" s="17"/>
       <c r="K918" s="43"/>
     </row>
-    <row r="919" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A919" s="23"/>
       <c r="B919" s="16"/>
       <c r="C919" s="16"/>
@@ -18646,7 +18654,7 @@
       <c r="J919" s="17"/>
       <c r="K919" s="43"/>
     </row>
-    <row r="920" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A920" s="23"/>
       <c r="B920" s="16"/>
       <c r="C920" s="16"/>
@@ -18659,7 +18667,7 @@
       <c r="J920" s="17"/>
       <c r="K920" s="43"/>
     </row>
-    <row r="921" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A921" s="23"/>
       <c r="B921" s="16"/>
       <c r="C921" s="16"/>
@@ -18672,7 +18680,7 @@
       <c r="J921" s="17"/>
       <c r="K921" s="43"/>
     </row>
-    <row r="922" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A922" s="23"/>
       <c r="B922" s="16"/>
       <c r="C922" s="16"/>
@@ -18685,7 +18693,7 @@
       <c r="J922" s="17"/>
       <c r="K922" s="43"/>
     </row>
-    <row r="923" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A923" s="23"/>
       <c r="B923" s="16"/>
       <c r="C923" s="16"/>
@@ -18698,7 +18706,7 @@
       <c r="J923" s="17"/>
       <c r="K923" s="43"/>
     </row>
-    <row r="924" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A924" s="23"/>
       <c r="B924" s="16"/>
       <c r="C924" s="16"/>
@@ -18711,7 +18719,7 @@
       <c r="J924" s="17"/>
       <c r="K924" s="43"/>
     </row>
-    <row r="925" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A925" s="23"/>
       <c r="B925" s="16"/>
       <c r="C925" s="16"/>
@@ -18724,7 +18732,7 @@
       <c r="J925" s="17"/>
       <c r="K925" s="43"/>
     </row>
-    <row r="926" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A926" s="23"/>
       <c r="B926" s="16"/>
       <c r="C926" s="16"/>
@@ -18737,7 +18745,7 @@
       <c r="J926" s="17"/>
       <c r="K926" s="43"/>
     </row>
-    <row r="927" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A927" s="23"/>
       <c r="B927" s="16"/>
       <c r="C927" s="16"/>
@@ -18750,7 +18758,7 @@
       <c r="J927" s="17"/>
       <c r="K927" s="43"/>
     </row>
-    <row r="928" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A928" s="23"/>
       <c r="B928" s="16"/>
       <c r="C928" s="16"/>
@@ -18763,7 +18771,7 @@
       <c r="J928" s="17"/>
       <c r="K928" s="43"/>
     </row>
-    <row r="929" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A929" s="23"/>
       <c r="B929" s="16"/>
       <c r="C929" s="16"/>
@@ -18776,7 +18784,7 @@
       <c r="J929" s="17"/>
       <c r="K929" s="43"/>
     </row>
-    <row r="930" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A930" s="23"/>
       <c r="B930" s="16"/>
       <c r="C930" s="16"/>
@@ -18789,7 +18797,7 @@
       <c r="J930" s="17"/>
       <c r="K930" s="43"/>
     </row>
-    <row r="931" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A931" s="23"/>
       <c r="B931" s="16"/>
       <c r="C931" s="16"/>
@@ -18802,7 +18810,7 @@
       <c r="J931" s="17"/>
       <c r="K931" s="43"/>
     </row>
-    <row r="932" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A932" s="23"/>
       <c r="B932" s="16"/>
       <c r="C932" s="16"/>
@@ -18815,7 +18823,7 @@
       <c r="J932" s="17"/>
       <c r="K932" s="43"/>
     </row>
-    <row r="933" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A933" s="23"/>
       <c r="B933" s="16"/>
       <c r="C933" s="16"/>
@@ -18828,7 +18836,7 @@
       <c r="J933" s="17"/>
       <c r="K933" s="43"/>
     </row>
-    <row r="934" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A934" s="23"/>
       <c r="B934" s="16"/>
       <c r="C934" s="16"/>
@@ -18841,7 +18849,7 @@
       <c r="J934" s="17"/>
       <c r="K934" s="43"/>
     </row>
-    <row r="935" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A935" s="23"/>
       <c r="B935" s="16"/>
       <c r="C935" s="16"/>
@@ -18854,7 +18862,7 @@
       <c r="J935" s="17"/>
       <c r="K935" s="43"/>
     </row>
-    <row r="936" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A936" s="23"/>
       <c r="B936" s="16"/>
       <c r="C936" s="16"/>
@@ -18867,7 +18875,7 @@
       <c r="J936" s="17"/>
       <c r="K936" s="43"/>
     </row>
-    <row r="937" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A937" s="23"/>
       <c r="B937" s="16"/>
       <c r="C937" s="16"/>
@@ -18880,7 +18888,7 @@
       <c r="J937" s="17"/>
       <c r="K937" s="43"/>
     </row>
-    <row r="938" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A938" s="23"/>
       <c r="B938" s="16"/>
       <c r="C938" s="16"/>
@@ -18893,7 +18901,7 @@
       <c r="J938" s="17"/>
       <c r="K938" s="43"/>
     </row>
-    <row r="939" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A939" s="23"/>
       <c r="B939" s="16"/>
       <c r="C939" s="16"/>
@@ -18906,7 +18914,7 @@
       <c r="J939" s="17"/>
       <c r="K939" s="43"/>
     </row>
-    <row r="940" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A940" s="23"/>
       <c r="B940" s="16"/>
       <c r="C940" s="16"/>
@@ -18919,7 +18927,7 @@
       <c r="J940" s="17"/>
       <c r="K940" s="43"/>
     </row>
-    <row r="941" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A941" s="23"/>
       <c r="B941" s="16"/>
       <c r="C941" s="16"/>
@@ -18932,7 +18940,7 @@
       <c r="J941" s="17"/>
       <c r="K941" s="43"/>
     </row>
-    <row r="942" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A942" s="23"/>
       <c r="B942" s="16"/>
       <c r="C942" s="16"/>
@@ -18945,7 +18953,7 @@
       <c r="J942" s="17"/>
       <c r="K942" s="43"/>
     </row>
-    <row r="943" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A943" s="23"/>
       <c r="B943" s="16"/>
       <c r="C943" s="16"/>
@@ -18958,7 +18966,7 @@
       <c r="J943" s="17"/>
       <c r="K943" s="43"/>
     </row>
-    <row r="944" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A944" s="23"/>
       <c r="B944" s="16"/>
       <c r="C944" s="16"/>
@@ -18971,7 +18979,7 @@
       <c r="J944" s="17"/>
       <c r="K944" s="43"/>
     </row>
-    <row r="945" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A945" s="23"/>
       <c r="B945" s="16"/>
       <c r="C945" s="16"/>
@@ -18984,7 +18992,7 @@
       <c r="J945" s="17"/>
       <c r="K945" s="43"/>
     </row>
-    <row r="946" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A946" s="23"/>
       <c r="B946" s="16"/>
       <c r="C946" s="16"/>
@@ -18997,7 +19005,7 @@
       <c r="J946" s="17"/>
       <c r="K946" s="43"/>
     </row>
-    <row r="947" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A947" s="23"/>
       <c r="B947" s="16"/>
       <c r="C947" s="16"/>
@@ -19010,7 +19018,7 @@
       <c r="J947" s="17"/>
       <c r="K947" s="43"/>
     </row>
-    <row r="948" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A948" s="23"/>
       <c r="B948" s="16"/>
       <c r="C948" s="16"/>
@@ -19023,7 +19031,7 @@
       <c r="J948" s="17"/>
       <c r="K948" s="43"/>
     </row>
-    <row r="949" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A949" s="23"/>
       <c r="B949" s="16"/>
       <c r="C949" s="16"/>
@@ -19036,7 +19044,7 @@
       <c r="J949" s="17"/>
       <c r="K949" s="43"/>
     </row>
-    <row r="950" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A950" s="23"/>
       <c r="B950" s="16"/>
       <c r="C950" s="16"/>
@@ -19049,7 +19057,7 @@
       <c r="J950" s="17"/>
       <c r="K950" s="43"/>
     </row>
-    <row r="951" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A951" s="23"/>
       <c r="B951" s="16"/>
       <c r="C951" s="16"/>
@@ -19062,7 +19070,7 @@
       <c r="J951" s="17"/>
       <c r="K951" s="43"/>
     </row>
-    <row r="952" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A952" s="23"/>
       <c r="B952" s="16"/>
       <c r="C952" s="16"/>
@@ -19075,7 +19083,7 @@
       <c r="J952" s="17"/>
       <c r="K952" s="43"/>
     </row>
-    <row r="953" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A953" s="23"/>
       <c r="B953" s="16"/>
       <c r="C953" s="16"/>
@@ -19088,7 +19096,7 @@
       <c r="J953" s="17"/>
       <c r="K953" s="43"/>
     </row>
-    <row r="954" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A954" s="23"/>
       <c r="B954" s="16"/>
       <c r="C954" s="16"/>
@@ -19101,7 +19109,7 @@
       <c r="J954" s="17"/>
       <c r="K954" s="43"/>
     </row>
-    <row r="955" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A955" s="23"/>
       <c r="B955" s="16"/>
       <c r="C955" s="16"/>
@@ -19114,7 +19122,7 @@
       <c r="J955" s="17"/>
       <c r="K955" s="43"/>
     </row>
-    <row r="956" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A956" s="23"/>
       <c r="B956" s="16"/>
       <c r="C956" s="16"/>
@@ -19127,7 +19135,7 @@
       <c r="J956" s="17"/>
       <c r="K956" s="43"/>
     </row>
-    <row r="957" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A957" s="23"/>
       <c r="B957" s="16"/>
       <c r="C957" s="16"/>
@@ -19140,7 +19148,7 @@
       <c r="J957" s="17"/>
       <c r="K957" s="43"/>
     </row>
-    <row r="958" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A958" s="23"/>
       <c r="B958" s="16"/>
       <c r="C958" s="16"/>
@@ -19153,7 +19161,7 @@
       <c r="J958" s="17"/>
       <c r="K958" s="43"/>
     </row>
-    <row r="959" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A959" s="23"/>
       <c r="B959" s="16"/>
       <c r="C959" s="16"/>
@@ -19166,7 +19174,7 @@
       <c r="J959" s="17"/>
       <c r="K959" s="43"/>
     </row>
-    <row r="960" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A960" s="23"/>
       <c r="B960" s="16"/>
       <c r="C960" s="16"/>
@@ -19179,7 +19187,7 @@
       <c r="J960" s="17"/>
       <c r="K960" s="43"/>
     </row>
-    <row r="961" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A961" s="23"/>
       <c r="B961" s="16"/>
       <c r="C961" s="16"/>
@@ -19192,7 +19200,7 @@
       <c r="J961" s="17"/>
       <c r="K961" s="43"/>
     </row>
-    <row r="962" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A962" s="23"/>
       <c r="B962" s="16"/>
       <c r="C962" s="16"/>
@@ -19205,7 +19213,7 @@
       <c r="J962" s="17"/>
       <c r="K962" s="43"/>
     </row>
-    <row r="963" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A963" s="23"/>
       <c r="B963" s="16"/>
       <c r="C963" s="16"/>
@@ -19218,7 +19226,7 @@
       <c r="J963" s="17"/>
       <c r="K963" s="43"/>
     </row>
-    <row r="964" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A964" s="23"/>
       <c r="B964" s="16"/>
       <c r="C964" s="16"/>
@@ -19231,7 +19239,7 @@
       <c r="J964" s="17"/>
       <c r="K964" s="43"/>
     </row>
-    <row r="965" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A965" s="23"/>
       <c r="B965" s="16"/>
       <c r="C965" s="16"/>
@@ -19244,7 +19252,7 @@
       <c r="J965" s="17"/>
       <c r="K965" s="43"/>
     </row>
-    <row r="966" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A966" s="23"/>
       <c r="B966" s="16"/>
       <c r="C966" s="16"/>
@@ -19257,7 +19265,7 @@
       <c r="J966" s="17"/>
       <c r="K966" s="43"/>
     </row>
-    <row r="967" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A967" s="23"/>
       <c r="B967" s="16"/>
       <c r="C967" s="16"/>
@@ -19270,7 +19278,7 @@
       <c r="J967" s="17"/>
       <c r="K967" s="43"/>
     </row>
-    <row r="968" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A968" s="23"/>
       <c r="B968" s="16"/>
       <c r="C968" s="16"/>
@@ -19283,7 +19291,7 @@
       <c r="J968" s="17"/>
       <c r="K968" s="43"/>
     </row>
-    <row r="969" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A969" s="23"/>
       <c r="B969" s="16"/>
       <c r="C969" s="16"/>
@@ -19296,7 +19304,7 @@
       <c r="J969" s="17"/>
       <c r="K969" s="43"/>
     </row>
-    <row r="970" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A970" s="23"/>
       <c r="B970" s="16"/>
       <c r="C970" s="16"/>
@@ -19309,7 +19317,7 @@
       <c r="J970" s="17"/>
       <c r="K970" s="43"/>
     </row>
-    <row r="971" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A971" s="23"/>
       <c r="B971" s="16"/>
       <c r="C971" s="16"/>
@@ -19322,7 +19330,7 @@
       <c r="J971" s="17"/>
       <c r="K971" s="43"/>
     </row>
-    <row r="972" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A972" s="23"/>
       <c r="B972" s="16"/>
       <c r="C972" s="16"/>
@@ -19335,7 +19343,7 @@
       <c r="J972" s="17"/>
       <c r="K972" s="43"/>
     </row>
-    <row r="973" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A973" s="23"/>
       <c r="B973" s="16"/>
       <c r="C973" s="16"/>
@@ -19348,7 +19356,7 @@
       <c r="J973" s="17"/>
       <c r="K973" s="43"/>
     </row>
-    <row r="974" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A974" s="23"/>
       <c r="B974" s="16"/>
       <c r="C974" s="16"/>
@@ -19361,7 +19369,7 @@
       <c r="J974" s="17"/>
       <c r="K974" s="43"/>
     </row>
-    <row r="975" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A975" s="23"/>
       <c r="B975" s="16"/>
       <c r="C975" s="16"/>
@@ -19374,7 +19382,7 @@
       <c r="J975" s="17"/>
       <c r="K975" s="43"/>
     </row>
-    <row r="976" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A976" s="23"/>
       <c r="B976" s="16"/>
       <c r="C976" s="16"/>
@@ -19387,7 +19395,7 @@
       <c r="J976" s="17"/>
       <c r="K976" s="43"/>
     </row>
-    <row r="977" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A977" s="23"/>
       <c r="B977" s="16"/>
       <c r="C977" s="16"/>
@@ -19400,7 +19408,7 @@
       <c r="J977" s="17"/>
       <c r="K977" s="43"/>
     </row>
-    <row r="978" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A978" s="23"/>
       <c r="B978" s="16"/>
       <c r="C978" s="16"/>
@@ -19413,7 +19421,7 @@
       <c r="J978" s="17"/>
       <c r="K978" s="43"/>
     </row>
-    <row r="979" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A979" s="23"/>
       <c r="B979" s="16"/>
       <c r="C979" s="16"/>
@@ -19426,7 +19434,7 @@
       <c r="J979" s="17"/>
       <c r="K979" s="43"/>
     </row>
-    <row r="980" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A980" s="23"/>
       <c r="B980" s="16"/>
       <c r="C980" s="16"/>
@@ -19439,7 +19447,7 @@
       <c r="J980" s="17"/>
       <c r="K980" s="43"/>
     </row>
-    <row r="981" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A981" s="23"/>
       <c r="B981" s="16"/>
       <c r="C981" s="16"/>
@@ -19452,7 +19460,7 @@
       <c r="J981" s="17"/>
       <c r="K981" s="43"/>
     </row>
-    <row r="982" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A982" s="23"/>
       <c r="B982" s="16"/>
       <c r="C982" s="16"/>
@@ -19465,7 +19473,7 @@
       <c r="J982" s="17"/>
       <c r="K982" s="43"/>
     </row>
-    <row r="983" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A983" s="23"/>
       <c r="B983" s="16"/>
       <c r="C983" s="16"/>
@@ -19478,7 +19486,7 @@
       <c r="J983" s="17"/>
       <c r="K983" s="43"/>
     </row>
-    <row r="984" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A984" s="23"/>
       <c r="B984" s="16"/>
       <c r="C984" s="16"/>
@@ -19491,7 +19499,7 @@
       <c r="J984" s="17"/>
       <c r="K984" s="43"/>
     </row>
-    <row r="985" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A985" s="23"/>
       <c r="B985" s="16"/>
       <c r="C985" s="16"/>
@@ -19504,7 +19512,7 @@
       <c r="J985" s="17"/>
       <c r="K985" s="43"/>
     </row>
-    <row r="986" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A986" s="23"/>
       <c r="B986" s="16"/>
       <c r="C986" s="16"/>
@@ -19517,7 +19525,7 @@
       <c r="J986" s="17"/>
       <c r="K986" s="43"/>
     </row>
-    <row r="987" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A987" s="23"/>
       <c r="B987" s="16"/>
       <c r="C987" s="16"/>
@@ -19530,7 +19538,7 @@
       <c r="J987" s="17"/>
       <c r="K987" s="43"/>
     </row>
-    <row r="988" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A988" s="23"/>
       <c r="B988" s="16"/>
       <c r="C988" s="16"/>
@@ -19543,7 +19551,7 @@
       <c r="J988" s="17"/>
       <c r="K988" s="43"/>
     </row>
-    <row r="989" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A989" s="23"/>
       <c r="B989" s="16"/>
       <c r="C989" s="16"/>
@@ -19556,7 +19564,7 @@
       <c r="J989" s="17"/>
       <c r="K989" s="43"/>
     </row>
-    <row r="990" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A990" s="23"/>
       <c r="B990" s="16"/>
       <c r="C990" s="16"/>
@@ -19569,7 +19577,7 @@
       <c r="J990" s="17"/>
       <c r="K990" s="43"/>
     </row>
-    <row r="991" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A991" s="23"/>
       <c r="B991" s="16"/>
       <c r="C991" s="16"/>
@@ -19582,7 +19590,7 @@
       <c r="J991" s="17"/>
       <c r="K991" s="43"/>
     </row>
-    <row r="992" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A992" s="23"/>
       <c r="B992" s="16"/>
       <c r="C992" s="16"/>
@@ -19595,7 +19603,7 @@
       <c r="J992" s="17"/>
       <c r="K992" s="43"/>
     </row>
-    <row r="993" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A993" s="23"/>
       <c r="B993" s="16"/>
       <c r="C993" s="16"/>
@@ -19608,7 +19616,7 @@
       <c r="J993" s="17"/>
       <c r="K993" s="43"/>
     </row>
-    <row r="994" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A994" s="23"/>
       <c r="B994" s="16"/>
       <c r="C994" s="16"/>
@@ -19621,7 +19629,7 @@
       <c r="J994" s="17"/>
       <c r="K994" s="43"/>
     </row>
-    <row r="995" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A995" s="23"/>
       <c r="B995" s="16"/>
       <c r="C995" s="16"/>
@@ -19634,7 +19642,7 @@
       <c r="J995" s="17"/>
       <c r="K995" s="43"/>
     </row>
-    <row r="996" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A996" s="23"/>
       <c r="B996" s="16"/>
       <c r="C996" s="16"/>
@@ -19647,7 +19655,7 @@
       <c r="J996" s="17"/>
       <c r="K996" s="43"/>
     </row>
-    <row r="997" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A997" s="23"/>
       <c r="B997" s="16"/>
       <c r="C997" s="16"/>
@@ -19660,7 +19668,7 @@
       <c r="J997" s="17"/>
       <c r="K997" s="43"/>
     </row>
-    <row r="998" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A998" s="23"/>
       <c r="B998" s="16"/>
       <c r="C998" s="16"/>
@@ -19673,7 +19681,7 @@
       <c r="J998" s="17"/>
       <c r="K998" s="43"/>
     </row>
-    <row r="999" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A999" s="23"/>
       <c r="B999" s="16"/>
       <c r="C999" s="16"/>
@@ -19686,7 +19694,7 @@
       <c r="J999" s="17"/>
       <c r="K999" s="43"/>
     </row>
-    <row r="1000" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1000" s="23"/>
       <c r="B1000" s="16"/>
       <c r="C1000" s="16"/>
@@ -19699,7 +19707,7 @@
       <c r="J1000" s="17"/>
       <c r="K1000" s="43"/>
     </row>
-    <row r="1001" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1001" s="23"/>
       <c r="B1001" s="16"/>
       <c r="C1001" s="16"/>
@@ -19712,7 +19720,7 @@
       <c r="J1001" s="17"/>
       <c r="K1001" s="43"/>
     </row>
-    <row r="1002" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1002" s="23"/>
       <c r="B1002" s="16"/>
       <c r="C1002" s="16"/>
@@ -19725,7 +19733,7 @@
       <c r="J1002" s="17"/>
       <c r="K1002" s="43"/>
     </row>
-    <row r="1003" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1003" s="23"/>
       <c r="B1003" s="16"/>
       <c r="C1003" s="16"/>
@@ -19738,7 +19746,7 @@
       <c r="J1003" s="17"/>
       <c r="K1003" s="43"/>
     </row>
-    <row r="1004" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1004" s="23"/>
       <c r="B1004" s="16"/>
       <c r="C1004" s="16"/>
@@ -19751,7 +19759,7 @@
       <c r="J1004" s="17"/>
       <c r="K1004" s="43"/>
     </row>
-    <row r="1005" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1005" s="23"/>
       <c r="B1005" s="16"/>
       <c r="C1005" s="16"/>
@@ -19764,7 +19772,7 @@
       <c r="J1005" s="17"/>
       <c r="K1005" s="43"/>
     </row>
-    <row r="1006" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1006" s="23"/>
       <c r="B1006" s="16"/>
       <c r="C1006" s="16"/>
@@ -19777,7 +19785,7 @@
       <c r="J1006" s="17"/>
       <c r="K1006" s="43"/>
     </row>
-    <row r="1007" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1007" s="23"/>
       <c r="B1007" s="16"/>
       <c r="C1007" s="16"/>
@@ -19790,7 +19798,7 @@
       <c r="J1007" s="17"/>
       <c r="K1007" s="43"/>
     </row>
-    <row r="1008" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1008" s="23"/>
       <c r="B1008" s="16"/>
       <c r="C1008" s="16"/>
@@ -19803,7 +19811,7 @@
       <c r="J1008" s="17"/>
       <c r="K1008" s="43"/>
     </row>
-    <row r="1009" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1009" s="23"/>
       <c r="B1009" s="16"/>
       <c r="C1009" s="16"/>
@@ -19816,7 +19824,7 @@
       <c r="J1009" s="17"/>
       <c r="K1009" s="43"/>
     </row>
-    <row r="1010" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1010" s="23"/>
       <c r="B1010" s="16"/>
       <c r="C1010" s="16"/>
@@ -19829,7 +19837,7 @@
       <c r="J1010" s="17"/>
       <c r="K1010" s="43"/>
     </row>
-    <row r="1011" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1011" s="23"/>
       <c r="B1011" s="16"/>
       <c r="C1011" s="16"/>
@@ -19842,7 +19850,7 @@
       <c r="J1011" s="17"/>
       <c r="K1011" s="43"/>
     </row>
-    <row r="1012" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1012" s="23"/>
       <c r="B1012" s="16"/>
       <c r="C1012" s="16"/>
@@ -19855,7 +19863,7 @@
       <c r="J1012" s="17"/>
       <c r="K1012" s="43"/>
     </row>
-    <row r="1013" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1013" s="23"/>
       <c r="B1013" s="16"/>
       <c r="C1013" s="16"/>
@@ -19868,7 +19876,7 @@
       <c r="J1013" s="17"/>
       <c r="K1013" s="43"/>
     </row>
-    <row r="1014" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1014" s="23"/>
       <c r="B1014" s="16"/>
       <c r="C1014" s="16"/>
@@ -19881,7 +19889,7 @@
       <c r="J1014" s="17"/>
       <c r="K1014" s="43"/>
     </row>
-    <row r="1015" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1015" s="23"/>
       <c r="B1015" s="16"/>
       <c r="C1015" s="16"/>
@@ -19894,7 +19902,7 @@
       <c r="J1015" s="17"/>
       <c r="K1015" s="43"/>
     </row>
-    <row r="1016" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1016" s="23"/>
       <c r="B1016" s="16"/>
       <c r="C1016" s="16"/>
@@ -19907,7 +19915,7 @@
       <c r="J1016" s="17"/>
       <c r="K1016" s="43"/>
     </row>
-    <row r="1017" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1017" s="23"/>
       <c r="B1017" s="16"/>
       <c r="C1017" s="16"/>
@@ -19920,7 +19928,7 @@
       <c r="J1017" s="17"/>
       <c r="K1017" s="43"/>
     </row>
-    <row r="1018" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1018" s="23"/>
       <c r="B1018" s="16"/>
       <c r="C1018" s="16"/>
@@ -19933,7 +19941,7 @@
       <c r="J1018" s="17"/>
       <c r="K1018" s="43"/>
     </row>
-    <row r="1019" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1019" s="23"/>
       <c r="B1019" s="16"/>
       <c r="C1019" s="16"/>
@@ -19946,7 +19954,7 @@
       <c r="J1019" s="17"/>
       <c r="K1019" s="43"/>
     </row>
-    <row r="1020" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1020" s="23"/>
       <c r="B1020" s="16"/>
       <c r="C1020" s="16"/>
@@ -19959,7 +19967,7 @@
       <c r="J1020" s="17"/>
       <c r="K1020" s="43"/>
     </row>
-    <row r="1021" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1021" s="23"/>
       <c r="B1021" s="16"/>
       <c r="C1021" s="16"/>
@@ -19972,7 +19980,7 @@
       <c r="J1021" s="17"/>
       <c r="K1021" s="43"/>
     </row>
-    <row r="1022" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1022" s="23"/>
       <c r="B1022" s="16"/>
       <c r="C1022" s="16"/>
@@ -19985,7 +19993,7 @@
       <c r="J1022" s="17"/>
       <c r="K1022" s="43"/>
     </row>
-    <row r="1023" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1023" s="23"/>
       <c r="B1023" s="16"/>
       <c r="C1023" s="16"/>
@@ -19998,7 +20006,7 @@
       <c r="J1023" s="17"/>
       <c r="K1023" s="43"/>
     </row>
-    <row r="1024" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1024" s="23"/>
       <c r="B1024" s="16"/>
       <c r="C1024" s="16"/>
@@ -20011,7 +20019,7 @@
       <c r="J1024" s="17"/>
       <c r="K1024" s="43"/>
     </row>
-    <row r="1025" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1025" s="23"/>
       <c r="B1025" s="16"/>
       <c r="C1025" s="16"/>
@@ -20024,7 +20032,7 @@
       <c r="J1025" s="17"/>
       <c r="K1025" s="43"/>
     </row>
-    <row r="1026" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1026" s="23"/>
       <c r="B1026" s="16"/>
       <c r="C1026" s="16"/>
@@ -20037,7 +20045,7 @@
       <c r="J1026" s="17"/>
       <c r="K1026" s="43"/>
     </row>
-    <row r="1027" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1027" s="23"/>
       <c r="B1027" s="16"/>
       <c r="C1027" s="16"/>
@@ -20050,7 +20058,7 @@
       <c r="J1027" s="17"/>
       <c r="K1027" s="43"/>
     </row>
-    <row r="1028" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1028" s="23"/>
       <c r="B1028" s="16"/>
       <c r="C1028" s="16"/>
@@ -20063,7 +20071,7 @@
       <c r="J1028" s="17"/>
       <c r="K1028" s="43"/>
     </row>
-    <row r="1029" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1029" s="23"/>
       <c r="B1029" s="16"/>
       <c r="C1029" s="16"/>
@@ -20076,7 +20084,7 @@
       <c r="J1029" s="17"/>
       <c r="K1029" s="43"/>
     </row>
-    <row r="1030" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1030" s="23"/>
       <c r="B1030" s="16"/>
       <c r="C1030" s="16"/>
@@ -20089,7 +20097,7 @@
       <c r="J1030" s="17"/>
       <c r="K1030" s="43"/>
     </row>
-    <row r="1031" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1031" s="23"/>
       <c r="B1031" s="16"/>
       <c r="C1031" s="16"/>
@@ -20102,7 +20110,7 @@
       <c r="J1031" s="17"/>
       <c r="K1031" s="43"/>
     </row>
-    <row r="1032" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1032" s="23"/>
       <c r="B1032" s="16"/>
       <c r="C1032" s="16"/>
@@ -20115,7 +20123,7 @@
       <c r="J1032" s="17"/>
       <c r="K1032" s="43"/>
     </row>
-    <row r="1033" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1033" s="23"/>
       <c r="B1033" s="16"/>
       <c r="C1033" s="16"/>
@@ -20128,7 +20136,7 @@
       <c r="J1033" s="17"/>
       <c r="K1033" s="43"/>
     </row>
-    <row r="1034" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1034" s="23"/>
       <c r="B1034" s="16"/>
       <c r="C1034" s="16"/>
@@ -20141,7 +20149,7 @@
       <c r="J1034" s="17"/>
       <c r="K1034" s="43"/>
     </row>
-    <row r="1035" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1035" s="23"/>
       <c r="B1035" s="16"/>
       <c r="C1035" s="16"/>
@@ -20154,7 +20162,7 @@
       <c r="J1035" s="17"/>
       <c r="K1035" s="43"/>
     </row>
-    <row r="1036" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1036" s="23"/>
       <c r="B1036" s="16"/>
       <c r="C1036" s="16"/>
@@ -20167,7 +20175,7 @@
       <c r="J1036" s="17"/>
       <c r="K1036" s="43"/>
     </row>
-    <row r="1037" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1037" s="23"/>
       <c r="B1037" s="16"/>
       <c r="C1037" s="16"/>
@@ -20180,7 +20188,7 @@
       <c r="J1037" s="17"/>
       <c r="K1037" s="43"/>
     </row>
-    <row r="1038" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1038" s="23"/>
       <c r="B1038" s="16"/>
       <c r="C1038" s="16"/>
@@ -20193,7 +20201,7 @@
       <c r="J1038" s="17"/>
       <c r="K1038" s="43"/>
     </row>
-    <row r="1039" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1039" s="23"/>
       <c r="B1039" s="16"/>
       <c r="C1039" s="16"/>
@@ -20206,7 +20214,7 @@
       <c r="J1039" s="17"/>
       <c r="K1039" s="43"/>
     </row>
-    <row r="1040" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1040" s="23"/>
       <c r="B1040" s="16"/>
       <c r="C1040" s="16"/>
@@ -20219,7 +20227,7 @@
       <c r="J1040" s="17"/>
       <c r="K1040" s="43"/>
     </row>
-    <row r="1041" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1041" s="23"/>
       <c r="B1041" s="16"/>
       <c r="C1041" s="16"/>
@@ -20232,7 +20240,7 @@
       <c r="J1041" s="17"/>
       <c r="K1041" s="43"/>
     </row>
-    <row r="1042" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1042" s="23"/>
       <c r="B1042" s="16"/>
       <c r="C1042" s="16"/>
@@ -20245,7 +20253,7 @@
       <c r="J1042" s="17"/>
       <c r="K1042" s="43"/>
     </row>
-    <row r="1043" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1043" s="23"/>
       <c r="B1043" s="16"/>
       <c r="C1043" s="16"/>
@@ -20258,7 +20266,7 @@
       <c r="J1043" s="17"/>
       <c r="K1043" s="43"/>
     </row>
-    <row r="1044" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1044" s="23"/>
       <c r="B1044" s="16"/>
       <c r="C1044" s="16"/>
@@ -20271,7 +20279,7 @@
       <c r="J1044" s="17"/>
       <c r="K1044" s="43"/>
     </row>
-    <row r="1045" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1045" s="23"/>
       <c r="B1045" s="16"/>
       <c r="C1045" s="16"/>
@@ -20284,7 +20292,7 @@
       <c r="J1045" s="17"/>
       <c r="K1045" s="43"/>
     </row>
-    <row r="1046" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1046" s="23"/>
       <c r="B1046" s="16"/>
       <c r="C1046" s="16"/>
@@ -20433,13 +20441,13 @@
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>41</v>
       </c>
@@ -20447,7 +20455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>40</v>
       </c>
@@ -20455,7 +20463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>41</v>
       </c>
@@ -20463,7 +20471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>40</v>
       </c>
@@ -20471,12 +20479,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>40</v>
       </c>
@@ -20494,15 +20502,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="60.5546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="24"/>
+    <col min="1" max="1" width="38.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>107</v>
       </c>
@@ -20513,7 +20521,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>110</v>
       </c>
@@ -20524,7 +20532,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>176</v>
       </c>
@@ -20535,7 +20543,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>177</v>
       </c>
@@ -20546,7 +20554,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>178</v>
       </c>
@@ -20557,7 +20565,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>179</v>
       </c>
@@ -20568,7 +20576,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>180</v>
       </c>
@@ -20579,7 +20587,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>181</v>
       </c>
@@ -20590,7 +20598,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>182</v>
       </c>
@@ -20601,7 +20609,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>183</v>
       </c>
@@ -20612,7 +20620,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>129</v>
       </c>
@@ -20623,7 +20631,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>184</v>
       </c>
@@ -20634,7 +20642,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>185</v>
       </c>
@@ -20645,7 +20653,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>186</v>
       </c>
@@ -20656,7 +20664,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>187</v>
       </c>
@@ -20667,7 +20675,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>188</v>
       </c>
@@ -20678,7 +20686,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>189</v>
       </c>
@@ -20689,7 +20697,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>190</v>
       </c>
@@ -20700,7 +20708,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>191</v>
       </c>
@@ -20711,7 +20719,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>192</v>
       </c>
@@ -20722,7 +20730,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>149</v>
       </c>
@@ -20733,7 +20741,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>152</v>
       </c>
@@ -20744,7 +20752,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>155</v>
       </c>
